--- a/PR1091_SOM_Maths_v07 (1).xlsx
+++ b/PR1091_SOM_Maths_v07 (1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10575" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10580" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="23" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Reelset 5" sheetId="8" r:id="rId13"/>
     <sheet name="Mini Slot" sheetId="10" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -482,10 +482,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -558,7 +558,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,9 +591,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,6 +643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,20 +835,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
@@ -828,7 +862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -842,7 +876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
@@ -856,7 +890,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>113</v>
       </c>
@@ -870,7 +904,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>115</v>
       </c>
@@ -884,7 +918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
@@ -898,7 +932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
@@ -913,7 +947,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
@@ -927,49 +961,49 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -981,14 +1015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:T46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1047,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1106,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1165,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1283,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1401,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1460,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1519,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1578,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1637,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1696,18 +1730,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>SUM(B13:S13)</f>
         <v>102400000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ref="A17:A26" si="0">A3</f>
         <v>0</v>
@@ -1844,7 +1878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1922,7 +1956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2000,7 +2034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2078,7 +2112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2156,7 +2190,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2234,7 +2268,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2312,7 +2346,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2390,7 +2424,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2468,7 +2502,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2546,12 +2580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2613,7 +2647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ref="A30:A39" si="1">A3</f>
         <v>0</v>
@@ -2695,7 +2729,7 @@
         <v>1.9044066406250001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2777,7 +2811,7 @@
         <v>5.3616210937500004E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2859,7 +2893,7 @@
         <v>6.6625962890624987E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2941,7 +2975,7 @@
         <v>1.17982685546875E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3023,7 +3057,7 @@
         <v>5.2890478515625006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3105,7 +3139,7 @@
         <v>5.4457031250000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3187,7 +3221,7 @@
         <v>9.5258808593750022E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3269,7 +3303,7 @@
         <v>1.33453125E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3351,7 +3385,7 @@
         <v>2.8124999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3433,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3514,7 +3548,7 @@
         <v>0.25567080761718752</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -3522,7 +3556,7 @@
         <v>31898941</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3530,7 +3564,7 @@
         <v>102400000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3539,7 +3573,7 @@
         <v>0.31151309570312502</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3555,14 +3589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:T46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3680,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3739,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3798,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3857,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3916,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3975,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4034,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4093,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4152,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4211,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -4270,18 +4304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>SUM(B13:S13)</f>
         <v>102400000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4340,7 +4374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ref="A17:A26" si="0">A3</f>
         <v>0</v>
@@ -4418,7 +4452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4496,7 +4530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4574,7 +4608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4652,7 +4686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4730,7 +4764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4808,7 +4842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4886,7 +4920,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4964,7 +4998,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5042,7 +5076,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5120,12 +5154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -5187,7 +5221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ref="A30:A39" si="1">A3</f>
         <v>0</v>
@@ -5269,7 +5303,7 @@
         <v>1.4169921875000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5351,7 +5385,7 @@
         <v>2.9567871093750002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5433,7 +5467,7 @@
         <v>1.2360908203125E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5515,7 +5549,7 @@
         <v>1.2576221679687499E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5597,7 +5631,7 @@
         <v>5.7021113281250001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5679,7 +5713,7 @@
         <v>4.6031250000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5761,7 +5795,7 @@
         <v>0.11358068359375</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5843,7 +5877,7 @@
         <v>6.2054531249999989E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5925,7 +5959,7 @@
         <v>8.7031249999999991E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6007,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -6088,7 +6122,7 @@
         <v>0.39502973730468749</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -6096,7 +6130,7 @@
         <v>24716368</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -6104,7 +6138,7 @@
         <v>102400000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -6113,7 +6147,7 @@
         <v>0.24137078125</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -6128,14 +6162,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:T46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6194,7 +6230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6253,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6312,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6371,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6430,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6489,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6548,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6607,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6666,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6725,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6784,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -6843,18 +6879,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>SUM(B13:S13)</f>
         <v>102400000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -6913,7 +6949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ref="A17:A26" si="0">A3</f>
         <v>0</v>
@@ -6991,7 +7027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7069,7 +7105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7147,7 +7183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7225,7 +7261,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7303,7 +7339,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7381,7 +7417,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7459,7 +7495,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7537,7 +7573,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7615,7 +7651,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7693,12 +7729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -7760,7 +7796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ref="A30:A39" si="1">A3</f>
         <v>0</v>
@@ -7842,7 +7878,7 @@
         <v>5.0365654296874998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -7924,7 +7960,7 @@
         <v>4.2550869140625001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -8006,7 +8042,7 @@
         <v>5.0564742187500004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -8088,7 +8124,7 @@
         <v>0.1170334677734375</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8170,7 +8206,7 @@
         <v>0.19433632812499999</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8252,7 +8288,7 @@
         <v>2.2802460937499998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8334,7 +8370,7 @@
         <v>0.88575060058593746</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -8416,7 +8452,7 @@
         <v>0.45922587890625011</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8498,7 +8534,7 @@
         <v>7.0312499999999997E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8580,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -8661,7 +8697,7 @@
         <v>1.7397082558593751</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -8669,7 +8705,7 @@
         <v>55734877</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -8677,7 +8713,7 @@
         <v>102400000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -8686,7 +8722,7 @@
         <v>0.54428590820312495</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -8701,14 +8737,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:T46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:S12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8767,7 +8815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8826,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8885,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8944,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9003,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9062,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9121,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9180,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9239,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9298,136 +9346,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
         <v>68660800</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>60448320</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>17172980</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>10079104</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>6432076</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>3461182</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>1371068</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>652017</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>307913</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>180394</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>106259</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <v>52217</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>19420</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="8">
         <v>5009</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="8">
         <v>790</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="8">
         <v>65</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>59286996</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>23280650</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>13384576</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>4934354</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>1275946</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>216760</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <v>20015</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>703</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>SUM(B13:S13)</f>
         <v>102400000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -9486,7 +9534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ref="A17:A26" si="0">A3</f>
         <v>0</v>
@@ -9564,7 +9612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9642,7 +9690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -9720,7 +9768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9798,7 +9846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9876,7 +9924,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9954,7 +10002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10032,7 +10080,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10110,7 +10158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10188,7 +10236,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10266,12 +10314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -10333,7 +10381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ref="A30:A39" si="1">A3</f>
         <v>0</v>
@@ -10415,7 +10463,7 @@
         <v>1.49254111328125E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -10497,7 +10545,7 @@
         <v>3.6986640624999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -10579,7 +10627,7 @@
         <v>1.5149531250000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10661,7 +10709,7 @@
         <v>1.7245371093750001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -10743,7 +10791,7 @@
         <v>2.3012573242187497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10825,7 +10873,7 @@
         <v>0.37611126953125001</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10907,7 +10955,7 @@
         <v>9.7609374999999996E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10989,7 +11037,7 @@
         <v>9.2230468749999995E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -11071,7 +11119,7 @@
         <v>0.50719121093749986</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -11153,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -11234,7 +11282,7 @@
         <v>0.97699957226562484</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -11242,7 +11290,7 @@
         <v>38085711</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -11250,7 +11298,7 @@
         <v>102400000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -11259,7 +11307,7 @@
         <v>0.37193077148437498</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -11274,37 +11322,37 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="K1" t="s">
         <v>48</v>
       </c>
@@ -11324,7 +11372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11368,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -11418,7 +11466,7 @@
         <v>0.30092930029154519</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -11469,7 +11517,7 @@
         <v>1.6456359329446064E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -11520,7 +11568,7 @@
         <v>1.2026239067055394E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -11571,7 +11619,7 @@
         <v>8.1427660349854235E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -11620,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>25</v>
       </c>
@@ -11656,7 +11704,7 @@
         <v>0.33755466472303208</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M9">
         <f>1/M7</f>
         <v>14634.666666666666</v>
@@ -11676,21 +11724,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -11699,7 +11747,7 @@
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5,1,0,0,3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -11708,7 +11756,7 @@
         <v>3,0,4,0,4,4,3,1,2,2,5,7,5,3,6,6,6,1,6,5,8,2,8,0,3,8,4,1,0,1,7,2,7,1,5,5,1,0,0,3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -11717,7 +11765,7 @@
         <v>3,0,4,0,4,4,6,1,2,2,5,8,7,3,6,6,6,8,7,5,0,5,4,0,0,3,1,1,8,1,7,2,7,1,5,1,1,0,0,3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -11726,7 +11774,7 @@
         <v>3,0,4,0,4,4,6,5,2,2,5,7,5,3,6,6,6,8,6,5,4,5,0,0,3,6,4,1,8,1,1,2,7,1,5,5,1,0,0,6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -11735,12 +11783,12 @@
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,0,5,4,5,6,0,3,0,1,1,8,1,7,2,7,1,5,5,1,0,0,3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -11749,7 +11797,7 @@
         <v>6,0,4,0,4,4,2,1,6,6,0,7,0,5,2,2,2,8,2,3,4,3,0,0,5,2,4,1,8,1,7,6,7,1,3,3,1,0,0,5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -11758,7 +11806,7 @@
         <v>3,0,4,0,4,4,2,1,6,6,3,7,4,5,0,2,2,8,2,3,4,6,8,0,5,2,4,1,8,1,7,6,7,1,3,3,2,0,0,4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -11767,7 +11815,7 @@
         <v>1,0,4,0,4,4,2,1,6,6,3,7,0,5,2,2,2,8,2,3,4,3,0,0,0,6,1,1,8,1,7,6,6,1,6,1,1,5,0,5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -11776,7 +11824,7 @@
         <v>8,0,4,0,4,4,2,1,6,6,3,7,4,5,2,2,2,8,2,3,4,3,0,0,5,4,4,1,8,2,4,6,7,6,3,3,1,0,0,2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -11785,12 +11833,12 @@
         <v>4,0,4,0,4,4,2,1,6,6,3,7,4,5,2,2,2,8,2,3,4,3,0,0,5,2,1,1,8,1,7,6,7,1,3,3,1,0,0,5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -11799,7 +11847,7 @@
         <v>6,4,4,0,4,4,5,1,6,6,7,4,2,2,5,5,5,8,5,3,4,3,2,2,4,7,4,1,8,1,7,6,7,1,3,3,1,0,0,2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -11808,7 +11856,7 @@
         <v>3,2,8,2,8,8,7,1,6,6,3,4,8,5,0,7,7,2,7,3,5,6,2,0,5,8,8,1,2,1,4,6,4,1,3,3,5,0,0,8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -11817,7 +11865,7 @@
         <v>1,4,4,0,4,4,5,1,6,6,3,7,4,2,5,5,5,8,5,3,4,3,2,4,4,6,4,2,8,2,7,6,6,1,6,1,1,2,0,2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -11826,7 +11874,7 @@
         <v>2,2,8,2,8,8,6,1,6,6,3,4,8,5,7,7,7,2,7,3,8,3,4,4,5,8,8,1,2,3,7,6,4,6,3,3,1,0,0,7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -11835,12 +11883,12 @@
         <v>4,0,4,4,4,4,6,1,6,6,3,7,8,2,5,5,5,8,5,3,4,3,2,0,2,2,1,1,8,1,7,6,7,1,3,3,1,0,0,5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -11849,7 +11897,7 @@
         <v>6,4,6,6,6,4,6,6,0,3,3,0,0,3,3,3,5,2,5,2,2,3,2,2,2,5,8,2,8,1,1,1,7,1,7,7,4,7,7,7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -11858,7 +11906,7 @@
         <v>6,4,5,5,6,0,6,6,6,6,7,3,2,3,3,3,5,2,5,2,2,3,2,2,2,3,4,4,5,8,4,4,4,7,7,1,1,7,7,7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -11867,7 +11915,7 @@
         <v>6,4,6,6,6,4,6,6,3,3,1,0,0,3,3,3,5,2,5,2,2,3,2,2,2,8,4,4,8,4,4,4,0,4,7,1,1,7,7,7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -11876,7 +11924,7 @@
         <v>6,4,5,5,5,0,6,6,6,6,7,6,2,3,3,3,5,0,5,0,0,3,0,0,0,8,4,4,7,8,4,4,4,8,7,1,1,7,7,7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -11885,12 +11933,12 @@
         <v>6,4,6,6,6,4,6,6,3,3,7,0,0,3,3,3,5,2,5,2,2,3,2,2,2,3,4,4,8,4,4,4,0,4,1,7,1,7,7,7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -11899,7 +11947,7 @@
         <v>5,0,5,5,5,0,9,9,5,9,9,4,4,1,1,1,6,2,6,9,9,1,2,2,2,3,9,9,9,7,9,9,6,9,9,8,0,8,8,8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -11908,7 +11956,7 @@
         <v>7,0,0,4,3,4,5,5,5,5,3,1,4,1,1,1,6,2,6,2,2,1,2,2,2,0,9,9,9,9,0,9,0,7,1,3,3,8,8,8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -11917,7 +11965,7 @@
         <v>2,0,5,5,5,3,5,5,1,5,7,4,4,1,1,1,6,0,0,1,9,9,9,2,9,9,6,9,4,0,0,0,8,0,4,1,3,8,8,8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -11926,7 +11974,7 @@
         <v>5,9,9,1,9,9,5,5,5,5,6,0,2,1,1,1,6,4,6,4,4,1,4,4,9,9,9,9,0,7,0,0,0,6,7,3,3,8,8,8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -11935,12 +11983,12 @@
         <v>4,0,5,5,5,9,9,9,7,7,8,4,4,1,1,1,6,9,9,9,2,1,2,2,2,9,9,0,9,9,0,0,4,0,3,4,3,8,8,8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -11948,7 +11996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -11957,7 +12005,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -11966,7 +12014,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -11975,7 +12023,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -11984,7 +12032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -11993,17 +12041,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -12012,7 +12060,7 @@
         <v>1,2,5,2,8,3,4,0,0,2,6,5,7,3,6,4,3,1,5,2,3,5,4,1,6,4,1,7,3,4,8,5,1,2,0,6,7,1,3,8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -12021,7 +12069,7 @@
         <v>2,1,6,4,1,3,7,5,2,8,0,3,5,3,1,0,4,2,5,6,1,7,2,4,0,7,1,3,4,6,2,7,2,1,5,4,3,1,2,8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -12030,7 +12078,7 @@
         <v>6,3,2,1,3,0,0,4,1,5,1,7,4,3,8,2,1,6,7,7,2,4,1,0,2,3,5,5,3,6,5,2,5,6,1,4,8,1,6,5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -12039,7 +12087,7 @@
         <v>1,1,2,8,3,5,3,4,1,2,2,7,5,3,6,4,2,5,7,2,0,0,6,3,6,5,7,5,4,2,5,1,7,4,0,1,6,3,1,8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -12048,12 +12096,12 @@
         <v>0,2,6,3,4,1,5,2,7,8,0,1,6,3,5,8,1,0,2,2,4,3,4,5,2,6,5,3,4,1,7,1,1,6,3,7,5,8,4,5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -12062,7 +12110,7 @@
         <v>0,2,5,2,8,3,4,1,1,2,6,5,7,3,6,4,7,0,5,2,3,5,4,0,6,4,0,7,3,4,8,5,0,2,1,6,7,0,3,8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -12071,7 +12119,7 @@
         <v>2,0,6,4,0,3,7,5,2,8,1,3,5,3,0,1,4,2,5,6,0,7,2,4,1,7,0,3,4,6,2,7,2,0,5,4,3,0,2,8</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -12080,7 +12128,7 @@
         <v>6,3,2,0,3,1,1,4,0,5,0,7,4,3,8,2,0,6,7,7,2,4,0,1,2,3,5,8,3,6,5,2,5,6,0,4,8,0,6,5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -12089,7 +12137,7 @@
         <v>0,0,2,8,3,5,3,4,0,2,2,7,5,3,6,4,2,5,7,2,1,1,8,3,6,5,7,5,4,2,5,0,7,4,1,0,6,3,0,8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -12098,12 +12146,12 @@
         <v>1,2,6,3,4,0,5,2,7,8,1,0,6,3,5,8,0,1,2,7,4,3,4,5,2,6,5,3,4,0,7,0,0,6,3,7,5,8,4,5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -12112,7 +12160,7 @@
         <v>0,1,5,1,8,3,4,2,2,1,6,5,7,3,6,4,7,0,5,1,3,5,4,0,6,1,0,7,3,4,8,5,0,1,2,6,7,0,3,8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -12121,7 +12169,7 @@
         <v>1,0,6,4,0,3,7,5,1,8,2,3,5,3,0,2,4,1,5,6,0,7,1,4,2,7,0,3,4,6,1,7,1,0,5,4,3,0,1,8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -12130,7 +12178,7 @@
         <v>6,3,1,0,3,2,2,4,1,5,0,7,4,3,8,1,0,6,7,7,1,4,0,2,1,3,5,8,3,6,5,1,5,6,0,4,8,0,6,5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -12139,7 +12187,7 @@
         <v>0,0,1,8,3,5,3,4,0,1,1,7,5,3,6,4,1,5,7,1,2,2,8,3,6,5,7,5,4,1,5,0,7,4,2,0,6,3,0,8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -12148,12 +12196,12 @@
         <v>2,1,6,3,4,0,5,1,7,8,2,0,6,3,5,8,0,2,1,7,4,3,4,1,1,6,5,3,4,0,7,0,0,6,3,7,5,8,4,5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -12162,7 +12210,7 @@
         <v>0,1,5,1,8,2,4,3,3,1,6,5,7,2,6,4,7,0,5,1,2,5,4,0,6,1,0,7,2,4,8,5,0,1,3,6,7,0,2,8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -12171,7 +12219,7 @@
         <v>1,0,6,4,0,2,7,5,1,8,3,2,5,2,0,3,4,1,5,6,0,7,1,4,3,7,0,2,4,6,3,7,1,0,5,4,2,0,1,8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -12180,7 +12228,7 @@
         <v>6,2,1,0,2,3,3,4,1,5,0,7,4,2,8,1,0,6,7,7,1,4,0,3,1,2,5,8,2,6,5,1,5,6,0,4,8,0,6,5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -12189,7 +12237,7 @@
         <v>0,0,1,8,2,5,2,4,0,1,1,7,5,2,6,4,1,5,7,1,3,3,8,2,6,5,7,5,3,1,5,0,7,4,3,0,6,2,0,8</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -12198,12 +12246,12 @@
         <v>3,1,6,2,4,0,5,1,7,8,3,0,6,2,5,8,0,3,1,7,4,2,4,1,1,6,5,2,4,0,7,0,0,6,2,7,5,8,4,5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -12212,7 +12260,7 @@
         <v>0,1,5,1,8,2,3,4,4,1,6,5,7,2,6,3,7,0,5,1,2,5,3,4,6,1,0,7,2,3,8,5,0,1,4,6,7,0,2,8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -12221,7 +12269,7 @@
         <v>1,0,6,3,0,2,7,5,1,8,4,2,5,4,0,4,3,1,5,6,0,7,1,3,4,7,0,2,3,6,4,7,1,0,5,3,2,0,1,8</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -12230,7 +12278,7 @@
         <v>6,2,1,0,2,4,4,3,1,5,0,7,3,2,8,1,0,6,7,7,1,3,0,4,1,2,5,8,2,6,5,4,5,6,0,3,8,0,6,5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -12239,7 +12287,7 @@
         <v>0,0,1,8,2,5,2,3,0,1,1,7,5,2,6,3,1,5,7,1,4,4,8,2,6,5,7,5,4,1,5,0,7,3,4,0,6,2,0,8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -12248,12 +12296,12 @@
         <v>4,1,6,2,3,0,5,1,7,8,4,0,6,2,5,8,0,4,1,7,3,2,3,1,1,6,5,2,3,0,7,0,0,6,2,7,5,8,3,5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -12262,7 +12310,7 @@
         <v>0,1,4,1,8,2,3,5,5,1,6,4,7,2,6,3,7,0,4,1,2,4,3,5,6,1,0,7,2,3,8,4,0,1,5,6,7,0,2,8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -12271,7 +12319,7 @@
         <v>1,0,6,3,0,2,7,4,1,8,3,2,4,5,0,5,3,1,4,6,0,7,1,3,5,7,0,2,3,6,5,7,1,0,4,3,2,0,1,8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -12280,7 +12328,7 @@
         <v>6,2,1,0,2,5,5,3,1,4,0,7,3,2,8,1,0,6,7,7,1,3,0,5,1,2,4,8,2,6,4,5,4,6,0,3,8,0,6,4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -12289,7 +12337,7 @@
         <v>0,0,1,8,2,4,2,3,0,1,1,7,4,2,6,3,1,4,7,1,5,0,8,2,6,4,7,4,5,1,4,0,7,3,5,0,6,2,0,8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>67</v>
       </c>
@@ -12298,12 +12346,12 @@
         <v>5,1,6,2,3,0,4,1,7,8,5,0,6,2,4,8,0,5,1,7,3,2,3,1,1,6,4,2,3,0,7,0,0,6,2,7,4,8,3,4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -12312,7 +12360,7 @@
         <v>0,1,4,1,8,2,3,6,6,1,5,4,7,2,5,3,7,0,4,1,2,4,3,6,5,1,0,7,2,3,8,4,0,1,6,5,7,0,2,8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -12321,7 +12369,7 @@
         <v>1,0,5,3,0,2,7,4,1,8,3,2,4,6,0,6,3,1,4,5,0,7,1,3,6,7,0,2,3,5,6,7,1,0,4,3,2,0,1,8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -12330,7 +12378,7 @@
         <v>5,2,1,0,2,6,6,3,1,4,0,7,3,2,8,1,0,5,7,7,1,3,0,6,1,2,4,8,2,5,4,6,4,5,0,3,8,0,5,4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -12339,7 +12387,7 @@
         <v>0,0,1,8,2,4,2,3,0,1,1,7,4,2,5,3,1,4,7,1,6,0,8,2,5,4,7,4,6,1,4,0,7,3,6,0,5,2,0,8</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -12348,12 +12396,12 @@
         <v>6,1,5,2,3,0,4,1,7,8,6,0,5,2,4,8,0,6,1,7,3,2,3,1,1,5,4,2,3,0,7,0,0,5,2,7,4,8,3,4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -12362,7 +12410,7 @@
         <v>0,1,4,1,8,2,3,0,0,1,5,4,6,2,5,3,6,0,4,1,2,4,3,7,5,1,0,6,2,3,8,4,0,1,7,5,6,0,2,8</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -12371,7 +12419,7 @@
         <v>1,0,5,3,0,2,6,0,1,8,3,2,4,7,0,0,3,1,4,5,0,6,1,3,7,6,0,2,3,5,7,6,1,0,4,3,2,0,1,8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -12380,7 +12428,7 @@
         <v>5,2,1,0,2,7,7,3,1,4,0,6,3,2,8,1,0,5,6,6,1,3,0,7,1,2,4,8,2,5,4,7,4,5,0,3,8,0,5,4</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -12389,7 +12437,7 @@
         <v>0,0,1,8,2,4,2,3,0,1,1,6,4,2,5,3,1,4,6,1,7,0,8,2,5,4,6,4,7,1,4,0,6,3,7,0,5,2,0,8</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>67</v>
       </c>
@@ -12398,12 +12446,12 @@
         <v>0,1,5,2,3,0,4,1,6,8,7,0,5,2,4,8,0,7,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6,4,8,3,4</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -12412,7 +12460,7 @@
         <v>0,1,4,1,7,2,3,0,0,1,5,4,6,2,5,3,6,0,4,1,2,4,3,8,5,1,0,6,2,3,7,4,0,1,8,5,6,0,2,7</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -12421,7 +12469,7 @@
         <v>1,0,5,3,0,2,6,0,1,7,3,2,4,8,0,0,3,1,4,5,0,6,1,3,7,6,0,2,3,5,8,6,1,0,4,3,2,0,1,7</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -12430,7 +12478,7 @@
         <v>5,2,1,0,2,0,0,3,1,4,0,6,3,2,7,1,0,5,6,4,1,3,0,8,1,2,4,7,2,5,4,8,4,5,0,3,7,0,5,4</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -12439,7 +12487,7 @@
         <v>0,0,1,7,2,4,2,3,0,1,1,6,4,2,5,3,7,4,6,1,8,0,7,2,5,7,6,4,8,1,4,0,6,3,8,0,5,2,0,7</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -12448,12 +12496,12 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6,4,7,3,4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -12485,7 +12533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
         <f>'Pay Table'!A3</f>
         <v>0</v>
@@ -12527,7 +12575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
         <f>'Pay Table'!A4</f>
         <v>1</v>
@@ -12569,7 +12617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112">
         <f>'Pay Table'!A5</f>
         <v>2</v>
@@ -12611,7 +12659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
         <f>'Pay Table'!A6</f>
         <v>3</v>
@@ -12653,7 +12701,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
         <f>'Pay Table'!A7</f>
         <v>4</v>
@@ -12695,7 +12743,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115">
         <f>'Pay Table'!A8</f>
         <v>5</v>
@@ -12737,7 +12785,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116">
         <f>'Pay Table'!A9</f>
         <v>6</v>
@@ -12779,7 +12827,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117">
         <f>'Pay Table'!A10</f>
         <v>7</v>
@@ -12821,7 +12869,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118">
         <f>'Pay Table'!A11</f>
         <v>8</v>
@@ -12863,17 +12911,17 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -12882,7 +12930,7 @@
         <v>10,14,12,14,13,14,11,14,10,14,12,14,11,14,12,14,10,14,11,14</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -12891,7 +12939,7 @@
         <v>10,14,11,14,13,14,12,14,11,14,10,14,12,14,10,14,11,14,12,14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -12900,12 +12948,12 @@
         <v>11,14,10,14,12,14,11,14,12,14,13,14,10,14,11,14,13,14,12,14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -12914,7 +12962,7 @@
         <v>6,1,3,2,2,1,4,2,6,1,4,2,4,1,4,1,5,2,4,1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -12923,7 +12971,7 @@
         <v>5,1,4,2,3,1,4,2,4,1,6,2,3,1,6,2,3,1,3,2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -12932,12 +12980,12 @@
         <v>6,1,5,2,5,1,5,2,4,1,1,2,5,1,5,2,1,1,4,2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -12945,7 +12993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>'Mini Slot'!L3</f>
         <v>3 x Any 7</v>
@@ -12955,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>'Mini Slot'!L4</f>
         <v>3 x Blue 7</v>
@@ -12965,7 +13013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>'Mini Slot'!L5</f>
         <v>3 x White 7</v>
@@ -12975,7 +13023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>'Mini Slot'!L6</f>
         <v>3 x Red 7</v>
@@ -12985,7 +13033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>'Mini Slot'!L7</f>
         <v>Jackpot</v>
@@ -12994,12 +13042,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -13008,7 +13056,7 @@
         <v>1 in 154</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -13017,7 +13065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -13025,7 +13073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <f>'Pay Table'!A34</f>
         <v>0</v>
@@ -13035,7 +13083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <f>'Pay Table'!A35</f>
         <v>1</v>
@@ -13045,7 +13093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <f>'Pay Table'!A36</f>
         <v>2</v>
@@ -13055,7 +13103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <f>'Pay Table'!A37</f>
         <v>3</v>
@@ -13065,7 +13113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <f>'Pay Table'!A38</f>
         <v>4</v>
@@ -13075,7 +13123,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <f>'Pay Table'!A39</f>
         <v>5</v>
@@ -13085,7 +13133,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <f>'Pay Table'!A40</f>
         <v>6</v>
@@ -13095,7 +13143,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <f>'Pay Table'!A41</f>
         <v>7</v>
@@ -13105,7 +13153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <f>'Pay Table'!A42</f>
         <v>8</v>
@@ -13115,12 +13163,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -13132,7 +13180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -13140,7 +13188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <f>'Pay Table'!A50</f>
         <v>1</v>
@@ -13150,7 +13198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <f>'Pay Table'!A51</f>
         <v>2</v>
@@ -13160,7 +13208,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <f>'Pay Table'!A52</f>
         <v>3</v>
@@ -13170,7 +13218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <f>'Pay Table'!A53</f>
         <v>4</v>
@@ -13180,7 +13228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <f>'Pay Table'!A54</f>
         <v>5</v>
@@ -13190,7 +13238,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <f>'Pay Table'!A55</f>
         <v>10</v>
@@ -13200,7 +13248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <f>'Pay Table'!A56</f>
         <v>20</v>
@@ -13210,7 +13258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <f>'Pay Table'!A57</f>
         <v>50</v>
@@ -13220,7 +13268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <f>'Pay Table'!A58</f>
         <v>100</v>
@@ -13230,7 +13278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <f>'Pay Table'!A59</f>
         <v>200</v>
@@ -13240,7 +13288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <f>'Pay Table'!A60</f>
         <v>500</v>
@@ -13256,28 +13304,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13288,7 +13336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13296,7 +13344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13304,7 +13352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13312,7 +13360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13320,7 +13368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13328,7 +13376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13336,7 +13384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13344,7 +13392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13352,7 +13400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13360,7 +13408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13380,19 +13428,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13451,7 +13501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>Symbols!A3</f>
         <v>0</v>
@@ -13504,7 +13554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>Symbols!A4</f>
         <v>1</v>
@@ -13557,7 +13607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>Symbols!A5</f>
         <v>2</v>
@@ -13610,7 +13660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>Symbols!A6</f>
         <v>3</v>
@@ -13663,7 +13713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>Symbols!A7</f>
         <v>4</v>
@@ -13716,7 +13766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>Symbols!A8</f>
         <v>5</v>
@@ -13769,7 +13819,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>Symbols!A9</f>
         <v>6</v>
@@ -13822,7 +13872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>Symbols!A10</f>
         <v>7</v>
@@ -13875,7 +13925,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>Symbols!A11</f>
         <v>8</v>
@@ -13928,13 +13978,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>Symbols!A12</f>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>B3</f>
         <v>0</v>
@@ -14008,7 +14058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <f t="shared" ref="B15:S15" si="10">B4</f>
         <v>0</v>
@@ -14082,7 +14132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <f t="shared" ref="B16:S16" si="11">B5</f>
         <v>0</v>
@@ -14156,7 +14206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17">
         <f t="shared" ref="B17:S17" si="12">B6</f>
         <v>0</v>
@@ -14230,7 +14280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18">
         <f t="shared" ref="B18:S18" si="13">B7</f>
         <v>0</v>
@@ -14304,7 +14354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19">
         <f t="shared" ref="B19:S19" si="14">B8</f>
         <v>0</v>
@@ -14378,7 +14428,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20">
         <f t="shared" ref="B20:S20" si="15">B9</f>
         <v>0</v>
@@ -14452,7 +14502,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21">
         <f t="shared" ref="B21:S21" si="16">B10</f>
         <v>0</v>
@@ -14526,7 +14576,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22">
         <f t="shared" ref="B22:S22" si="17">B11</f>
         <v>0</v>
@@ -14600,7 +14650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23">
         <f t="shared" ref="B23:S23" si="18">B12</f>
         <v>0</v>
@@ -14674,12 +14724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14696,7 +14746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>'Mini Slot'!A3</f>
         <v>10</v>
@@ -14705,7 +14755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>'Mini Slot'!A4</f>
         <v>11</v>
@@ -14714,7 +14764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>'Mini Slot'!A5</f>
         <v>12</v>
@@ -14723,7 +14773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>'Mini Slot'!A6</f>
         <v>13</v>
@@ -14732,12 +14782,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -14748,7 +14798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -14760,7 +14810,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -14772,7 +14822,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2</v>
       </c>
@@ -14790,7 +14840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3</v>
       </c>
@@ -14808,8 +14858,12 @@
         <f>'Pick Me All'!AM23</f>
         <v>6.3148826901327899</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>'Pick Me All'!X28</f>
+        <v>5.4806882617643184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
@@ -14828,7 +14882,7 @@
         <v>6.4935064935064939E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5</v>
       </c>
@@ -14846,8 +14900,12 @@
         <f>F38*F37</f>
         <v>4.1005731754109029E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f>PRODUCT(F38,G37)</f>
+        <v>3.5588884816651421E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6</v>
       </c>
@@ -14859,7 +14917,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7</v>
       </c>
@@ -14871,7 +14929,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>8</v>
       </c>
@@ -14883,7 +14941,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>9</v>
       </c>
@@ -14895,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -14908,12 +14966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -14922,7 +14980,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -14930,7 +14988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -14939,7 +14997,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2</v>
       </c>
@@ -14947,7 +15005,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3</v>
       </c>
@@ -14955,7 +15013,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -14963,7 +15021,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5</v>
       </c>
@@ -14971,7 +15029,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>10</v>
       </c>
@@ -14979,7 +15037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>20</v>
       </c>
@@ -14987,7 +15045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>50</v>
       </c>
@@ -14995,7 +15053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>100</v>
       </c>
@@ -15003,7 +15061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>200</v>
       </c>
@@ -15011,7 +15069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>500</v>
       </c>
@@ -15025,260 +15083,260 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:HB87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:210" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:210" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="V1" s="8" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="V1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AC1" s="8" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AJ1" s="8" t="s">
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AJ1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AQ1" s="8" t="s">
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AQ1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AX1" s="8" t="s">
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AX1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BE1" s="8" t="s">
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BE1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BL1" s="8" t="s">
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BL1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BS1" s="8" t="s">
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BS1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BX1" s="8" t="s">
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BX1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CC1" s="8" t="s">
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CC1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CH1" s="8" t="s">
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CH1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CO1" s="8" t="s">
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CO1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CV1" s="8" t="s">
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
+      <c r="CR1" s="9"/>
+      <c r="CS1" s="9"/>
+      <c r="CT1" s="9"/>
+      <c r="CV1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
-      <c r="DA1" s="8"/>
-      <c r="DC1" s="8" t="s">
+      <c r="CW1" s="9"/>
+      <c r="CX1" s="9"/>
+      <c r="CY1" s="9"/>
+      <c r="CZ1" s="9"/>
+      <c r="DA1" s="9"/>
+      <c r="DC1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="DD1" s="8"/>
-      <c r="DE1" s="8"/>
-      <c r="DF1" s="8"/>
-      <c r="DG1" s="8"/>
-      <c r="DH1" s="8"/>
-      <c r="DJ1" s="8" t="s">
+      <c r="DD1" s="9"/>
+      <c r="DE1" s="9"/>
+      <c r="DF1" s="9"/>
+      <c r="DG1" s="9"/>
+      <c r="DH1" s="9"/>
+      <c r="DJ1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="DK1" s="8"/>
-      <c r="DL1" s="8"/>
-      <c r="DM1" s="8"/>
-      <c r="DN1" s="8"/>
-      <c r="DO1" s="8"/>
-      <c r="DQ1" s="8" t="s">
+      <c r="DK1" s="9"/>
+      <c r="DL1" s="9"/>
+      <c r="DM1" s="9"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="9"/>
+      <c r="DQ1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="DR1" s="8"/>
-      <c r="DS1" s="8"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="8"/>
-      <c r="DV1" s="8"/>
-      <c r="DX1" s="8" t="s">
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DX1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="DY1" s="8"/>
-      <c r="DZ1" s="8"/>
-      <c r="EA1" s="8"/>
-      <c r="EB1" s="8"/>
-      <c r="EC1" s="8"/>
-      <c r="EE1" s="8" t="s">
+      <c r="DY1" s="9"/>
+      <c r="DZ1" s="9"/>
+      <c r="EA1" s="9"/>
+      <c r="EB1" s="9"/>
+      <c r="EC1" s="9"/>
+      <c r="EE1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="EF1" s="8"/>
-      <c r="EG1" s="8"/>
-      <c r="EH1" s="8"/>
-      <c r="EI1" s="8"/>
-      <c r="EJ1" s="8"/>
-      <c r="EL1" s="8" t="s">
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="9"/>
+      <c r="EH1" s="9"/>
+      <c r="EI1" s="9"/>
+      <c r="EJ1" s="9"/>
+      <c r="EL1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="EM1" s="8"/>
-      <c r="EN1" s="8"/>
-      <c r="EO1" s="8"/>
-      <c r="EP1" s="8"/>
-      <c r="EQ1" s="8"/>
-      <c r="ES1" s="8" t="s">
+      <c r="EM1" s="9"/>
+      <c r="EN1" s="9"/>
+      <c r="EO1" s="9"/>
+      <c r="EP1" s="9"/>
+      <c r="EQ1" s="9"/>
+      <c r="ES1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="ET1" s="8"/>
-      <c r="EU1" s="8"/>
-      <c r="EV1" s="8"/>
-      <c r="EW1" s="8"/>
-      <c r="EX1" s="8"/>
-      <c r="EZ1" s="8" t="s">
+      <c r="ET1" s="9"/>
+      <c r="EU1" s="9"/>
+      <c r="EV1" s="9"/>
+      <c r="EW1" s="9"/>
+      <c r="EX1" s="9"/>
+      <c r="EZ1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="FA1" s="8"/>
-      <c r="FB1" s="8"/>
-      <c r="FC1" s="8"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="8"/>
-      <c r="FG1" s="8" t="s">
+      <c r="FA1" s="9"/>
+      <c r="FB1" s="9"/>
+      <c r="FC1" s="9"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="9"/>
+      <c r="FG1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="FH1" s="8"/>
-      <c r="FI1" s="8"/>
-      <c r="FJ1" s="8"/>
-      <c r="FK1" s="8"/>
-      <c r="FL1" s="8"/>
-      <c r="FN1" s="8" t="s">
+      <c r="FH1" s="9"/>
+      <c r="FI1" s="9"/>
+      <c r="FJ1" s="9"/>
+      <c r="FK1" s="9"/>
+      <c r="FL1" s="9"/>
+      <c r="FN1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="FO1" s="8"/>
-      <c r="FP1" s="8"/>
-      <c r="FQ1" s="8"/>
-      <c r="FR1" s="8"/>
-      <c r="FS1" s="8"/>
-      <c r="FU1" s="8" t="s">
+      <c r="FO1" s="9"/>
+      <c r="FP1" s="9"/>
+      <c r="FQ1" s="9"/>
+      <c r="FR1" s="9"/>
+      <c r="FS1" s="9"/>
+      <c r="FU1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="8"/>
-      <c r="FX1" s="8"/>
-      <c r="FY1" s="8"/>
-      <c r="FZ1" s="8"/>
-      <c r="GB1" s="8" t="s">
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="9"/>
+      <c r="FX1" s="9"/>
+      <c r="FY1" s="9"/>
+      <c r="FZ1" s="9"/>
+      <c r="GB1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="GC1" s="8"/>
-      <c r="GD1" s="8"/>
-      <c r="GE1" s="8"/>
-      <c r="GF1" s="8"/>
-      <c r="GG1" s="8"/>
-      <c r="GI1" s="8" t="s">
+      <c r="GC1" s="9"/>
+      <c r="GD1" s="9"/>
+      <c r="GE1" s="9"/>
+      <c r="GF1" s="9"/>
+      <c r="GG1" s="9"/>
+      <c r="GI1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="GJ1" s="8"/>
-      <c r="GK1" s="8"/>
-      <c r="GL1" s="8"/>
-      <c r="GM1" s="8"/>
-      <c r="GN1" s="8"/>
-      <c r="GP1" s="8" t="s">
+      <c r="GJ1" s="9"/>
+      <c r="GK1" s="9"/>
+      <c r="GL1" s="9"/>
+      <c r="GM1" s="9"/>
+      <c r="GN1" s="9"/>
+      <c r="GP1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="GQ1" s="8"/>
-      <c r="GR1" s="8"/>
-      <c r="GS1" s="8"/>
-      <c r="GT1" s="8"/>
-      <c r="GU1" s="8"/>
-      <c r="GW1" s="8" t="s">
+      <c r="GQ1" s="9"/>
+      <c r="GR1" s="9"/>
+      <c r="GS1" s="9"/>
+      <c r="GT1" s="9"/>
+      <c r="GU1" s="9"/>
+      <c r="GW1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="GX1" s="8"/>
-      <c r="GY1" s="8"/>
-      <c r="GZ1" s="8"/>
-      <c r="HA1" s="8"/>
-      <c r="HB1" s="8"/>
-    </row>
-    <row r="2" spans="1:210" x14ac:dyDescent="0.25">
+      <c r="GX1" s="9"/>
+      <c r="GY1" s="9"/>
+      <c r="GZ1" s="9"/>
+      <c r="HA1" s="9"/>
+      <c r="HB1" s="9"/>
+    </row>
+    <row r="2" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -15820,7 +15878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -16392,7 +16450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16964,7 +17022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17536,7 +17594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18108,7 +18166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18680,7 +18738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -19254,7 +19312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -19813,7 +19871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -20023,12 +20081,12 @@
       <c r="CA10">
         <v>2</v>
       </c>
-      <c r="CC10" s="8" t="s">
+      <c r="CC10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="CD10" s="8"/>
-      <c r="CE10" s="8"/>
-      <c r="CF10" s="8"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
       <c r="CH10">
         <v>7</v>
       </c>
@@ -20378,7 +20436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -20949,7 +21007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -21524,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -22140,7 +22198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
@@ -22434,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
@@ -22453,14 +22511,14 @@
       <c r="F15">
         <v>3</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="O15">
         <v>12</v>
       </c>
@@ -22479,14 +22537,14 @@
       <c r="T15">
         <v>4</v>
       </c>
-      <c r="V15" s="8" t="s">
+      <c r="V15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
       <c r="AC15">
         <v>12</v>
       </c>
@@ -22505,14 +22563,14 @@
       <c r="AH15">
         <v>8</v>
       </c>
-      <c r="AJ15" s="8" t="s">
+      <c r="AJ15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
       <c r="AQ15">
         <v>12</v>
       </c>
@@ -22531,14 +22589,14 @@
       <c r="AV15">
         <v>0</v>
       </c>
-      <c r="AX15" s="8" t="s">
+      <c r="AX15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
       <c r="BE15">
         <v>12</v>
       </c>
@@ -22557,14 +22615,14 @@
       <c r="BJ15">
         <v>4</v>
       </c>
-      <c r="BL15" s="8" t="s">
+      <c r="BL15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="8"/>
-      <c r="BO15" s="8"/>
-      <c r="BP15" s="8"/>
-      <c r="BQ15" s="8"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
       <c r="BS15">
         <v>12</v>
       </c>
@@ -22623,14 +22681,14 @@
       <c r="CM15">
         <v>6</v>
       </c>
-      <c r="CO15" s="8" t="s">
+      <c r="CO15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="CP15" s="8"/>
-      <c r="CQ15" s="8"/>
-      <c r="CR15" s="8"/>
-      <c r="CS15" s="8"/>
-      <c r="CT15" s="8"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
+      <c r="CS15" s="9"/>
+      <c r="CT15" s="9"/>
       <c r="CV15">
         <v>12</v>
       </c>
@@ -22649,14 +22707,14 @@
       <c r="DA15">
         <v>6</v>
       </c>
-      <c r="DC15" s="8" t="s">
+      <c r="DC15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="DD15" s="8"/>
-      <c r="DE15" s="8"/>
-      <c r="DF15" s="8"/>
-      <c r="DG15" s="8"/>
-      <c r="DH15" s="8"/>
+      <c r="DD15" s="9"/>
+      <c r="DE15" s="9"/>
+      <c r="DF15" s="9"/>
+      <c r="DG15" s="9"/>
+      <c r="DH15" s="9"/>
       <c r="DJ15">
         <v>12</v>
       </c>
@@ -22675,14 +22733,14 @@
       <c r="DO15">
         <v>6</v>
       </c>
-      <c r="DQ15" s="8" t="s">
+      <c r="DQ15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="DR15" s="8"/>
-      <c r="DS15" s="8"/>
-      <c r="DT15" s="8"/>
-      <c r="DU15" s="8"/>
-      <c r="DV15" s="8"/>
+      <c r="DR15" s="9"/>
+      <c r="DS15" s="9"/>
+      <c r="DT15" s="9"/>
+      <c r="DU15" s="9"/>
+      <c r="DV15" s="9"/>
       <c r="DX15">
         <v>12</v>
       </c>
@@ -22701,14 +22759,14 @@
       <c r="EC15">
         <v>6</v>
       </c>
-      <c r="EE15" s="8" t="s">
+      <c r="EE15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="EF15" s="8"/>
-      <c r="EG15" s="8"/>
-      <c r="EH15" s="8"/>
-      <c r="EI15" s="8"/>
-      <c r="EJ15" s="8"/>
+      <c r="EF15" s="9"/>
+      <c r="EG15" s="9"/>
+      <c r="EH15" s="9"/>
+      <c r="EI15" s="9"/>
+      <c r="EJ15" s="9"/>
       <c r="EL15">
         <v>12</v>
       </c>
@@ -22727,14 +22785,14 @@
       <c r="EQ15">
         <v>6</v>
       </c>
-      <c r="ES15" s="8" t="s">
+      <c r="ES15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="ET15" s="8"/>
-      <c r="EU15" s="8"/>
-      <c r="EV15" s="8"/>
-      <c r="EW15" s="8"/>
-      <c r="EX15" s="8"/>
+      <c r="ET15" s="9"/>
+      <c r="EU15" s="9"/>
+      <c r="EV15" s="9"/>
+      <c r="EW15" s="9"/>
+      <c r="EX15" s="9"/>
       <c r="EZ15">
         <v>12</v>
       </c>
@@ -22753,14 +22811,14 @@
       <c r="FE15">
         <v>6</v>
       </c>
-      <c r="FG15" s="8" t="s">
+      <c r="FG15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="FH15" s="8"/>
-      <c r="FI15" s="8"/>
-      <c r="FJ15" s="8"/>
-      <c r="FK15" s="8"/>
-      <c r="FL15" s="8"/>
+      <c r="FH15" s="9"/>
+      <c r="FI15" s="9"/>
+      <c r="FJ15" s="9"/>
+      <c r="FK15" s="9"/>
+      <c r="FL15" s="9"/>
       <c r="FN15">
         <v>12</v>
       </c>
@@ -22779,14 +22837,14 @@
       <c r="FS15">
         <v>5</v>
       </c>
-      <c r="FU15" s="8" t="s">
+      <c r="FU15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="FV15" s="8"/>
-      <c r="FW15" s="8"/>
-      <c r="FX15" s="8"/>
-      <c r="FY15" s="8"/>
-      <c r="FZ15" s="8"/>
+      <c r="FV15" s="9"/>
+      <c r="FW15" s="9"/>
+      <c r="FX15" s="9"/>
+      <c r="FY15" s="9"/>
+      <c r="FZ15" s="9"/>
       <c r="GB15">
         <v>12</v>
       </c>
@@ -22805,14 +22863,14 @@
       <c r="GG15">
         <v>5</v>
       </c>
-      <c r="GI15" s="8" t="s">
+      <c r="GI15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="GJ15" s="8"/>
-      <c r="GK15" s="8"/>
-      <c r="GL15" s="8"/>
-      <c r="GM15" s="8"/>
-      <c r="GN15" s="8"/>
+      <c r="GJ15" s="9"/>
+      <c r="GK15" s="9"/>
+      <c r="GL15" s="9"/>
+      <c r="GM15" s="9"/>
+      <c r="GN15" s="9"/>
       <c r="GP15">
         <v>12</v>
       </c>
@@ -22831,16 +22889,16 @@
       <c r="GU15">
         <v>5</v>
       </c>
-      <c r="GW15" s="8" t="s">
+      <c r="GW15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="GX15" s="8"/>
-      <c r="GY15" s="8"/>
-      <c r="GZ15" s="8"/>
-      <c r="HA15" s="8"/>
-      <c r="HB15" s="8"/>
-    </row>
-    <row r="16" spans="1:210" x14ac:dyDescent="0.25">
+      <c r="GX15" s="9"/>
+      <c r="GY15" s="9"/>
+      <c r="GZ15" s="9"/>
+      <c r="HA15" s="9"/>
+      <c r="HB15" s="9"/>
+    </row>
+    <row r="16" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13</v>
       </c>
@@ -23386,7 +23444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
@@ -24015,7 +24073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
@@ -24629,7 +24687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
@@ -24864,12 +24922,12 @@
       <c r="CA19">
         <v>1</v>
       </c>
-      <c r="CC19" s="8" t="s">
+      <c r="CC19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="CD19" s="8"/>
-      <c r="CE19" s="8"/>
-      <c r="CF19" s="8"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
       <c r="CH19">
         <v>16</v>
       </c>
@@ -25249,7 +25307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
@@ -25875,7 +25933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
@@ -26505,7 +26563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
@@ -27135,7 +27193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
@@ -27741,7 +27799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
@@ -28371,7 +28429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
@@ -29001,7 +29059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
@@ -29630,7 +29688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>24</v>
       </c>
@@ -30230,7 +30288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>25</v>
       </c>
@@ -30508,7 +30566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>26</v>
       </c>
@@ -30527,14 +30585,14 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
       <c r="O29">
         <v>26</v>
       </c>
@@ -30553,14 +30611,14 @@
       <c r="T29">
         <v>1</v>
       </c>
-      <c r="V29" s="8" t="s">
+      <c r="V29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
       <c r="AC29">
         <v>26</v>
       </c>
@@ -30579,14 +30637,14 @@
       <c r="AH29">
         <v>1</v>
       </c>
-      <c r="AJ29" s="8" t="s">
+      <c r="AJ29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
       <c r="AQ29">
         <v>26</v>
       </c>
@@ -30605,14 +30663,14 @@
       <c r="AV29">
         <v>4</v>
       </c>
-      <c r="AX29" s="8" t="s">
+      <c r="AX29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="8"/>
-      <c r="BA29" s="8"/>
-      <c r="BB29" s="8"/>
-      <c r="BC29" s="8"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
       <c r="BE29">
         <v>26</v>
       </c>
@@ -30631,14 +30689,14 @@
       <c r="BJ29">
         <v>9</v>
       </c>
-      <c r="BL29" s="8" t="s">
+      <c r="BL29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="BM29" s="8"/>
-      <c r="BN29" s="8"/>
-      <c r="BO29" s="8"/>
-      <c r="BP29" s="8"/>
-      <c r="BQ29" s="8"/>
+      <c r="BM29" s="9"/>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="9"/>
+      <c r="BQ29" s="9"/>
       <c r="BT29" t="str">
         <f t="shared" si="116"/>
         <v>10,14,12,14,13,14,11</v>
@@ -30681,14 +30739,14 @@
       <c r="CM29">
         <v>5</v>
       </c>
-      <c r="CO29" s="8" t="s">
+      <c r="CO29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="CP29" s="8"/>
-      <c r="CQ29" s="8"/>
-      <c r="CR29" s="8"/>
-      <c r="CS29" s="8"/>
-      <c r="CT29" s="8"/>
+      <c r="CP29" s="9"/>
+      <c r="CQ29" s="9"/>
+      <c r="CR29" s="9"/>
+      <c r="CS29" s="9"/>
+      <c r="CT29" s="9"/>
       <c r="CV29">
         <v>26</v>
       </c>
@@ -30707,14 +30765,14 @@
       <c r="DA29">
         <v>5</v>
       </c>
-      <c r="DC29" s="8" t="s">
+      <c r="DC29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="DD29" s="8"/>
-      <c r="DE29" s="8"/>
-      <c r="DF29" s="8"/>
-      <c r="DG29" s="8"/>
-      <c r="DH29" s="8"/>
+      <c r="DD29" s="9"/>
+      <c r="DE29" s="9"/>
+      <c r="DF29" s="9"/>
+      <c r="DG29" s="9"/>
+      <c r="DH29" s="9"/>
       <c r="DJ29">
         <v>26</v>
       </c>
@@ -30733,14 +30791,14 @@
       <c r="DO29">
         <v>5</v>
       </c>
-      <c r="DQ29" s="8" t="s">
+      <c r="DQ29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="DR29" s="8"/>
-      <c r="DS29" s="8"/>
-      <c r="DT29" s="8"/>
-      <c r="DU29" s="8"/>
-      <c r="DV29" s="8"/>
+      <c r="DR29" s="9"/>
+      <c r="DS29" s="9"/>
+      <c r="DT29" s="9"/>
+      <c r="DU29" s="9"/>
+      <c r="DV29" s="9"/>
       <c r="DX29">
         <v>26</v>
       </c>
@@ -30759,14 +30817,14 @@
       <c r="EC29">
         <v>5</v>
       </c>
-      <c r="EE29" s="8" t="s">
+      <c r="EE29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="EF29" s="8"/>
-      <c r="EG29" s="8"/>
-      <c r="EH29" s="8"/>
-      <c r="EI29" s="8"/>
-      <c r="EJ29" s="8"/>
+      <c r="EF29" s="9"/>
+      <c r="EG29" s="9"/>
+      <c r="EH29" s="9"/>
+      <c r="EI29" s="9"/>
+      <c r="EJ29" s="9"/>
       <c r="EL29">
         <v>26</v>
       </c>
@@ -30785,14 +30843,14 @@
       <c r="EQ29">
         <v>5</v>
       </c>
-      <c r="ES29" s="8" t="s">
+      <c r="ES29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="ET29" s="8"/>
-      <c r="EU29" s="8"/>
-      <c r="EV29" s="8"/>
-      <c r="EW29" s="8"/>
-      <c r="EX29" s="8"/>
+      <c r="ET29" s="9"/>
+      <c r="EU29" s="9"/>
+      <c r="EV29" s="9"/>
+      <c r="EW29" s="9"/>
+      <c r="EX29" s="9"/>
       <c r="EZ29">
         <v>26</v>
       </c>
@@ -30811,14 +30869,14 @@
       <c r="FE29">
         <v>4</v>
       </c>
-      <c r="FG29" s="8" t="s">
+      <c r="FG29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="FH29" s="8"/>
-      <c r="FI29" s="8"/>
-      <c r="FJ29" s="8"/>
-      <c r="FK29" s="8"/>
-      <c r="FL29" s="8"/>
+      <c r="FH29" s="9"/>
+      <c r="FI29" s="9"/>
+      <c r="FJ29" s="9"/>
+      <c r="FK29" s="9"/>
+      <c r="FL29" s="9"/>
       <c r="FN29">
         <v>26</v>
       </c>
@@ -30837,14 +30895,14 @@
       <c r="FS29">
         <v>4</v>
       </c>
-      <c r="FU29" s="8" t="s">
+      <c r="FU29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="FV29" s="8"/>
-      <c r="FW29" s="8"/>
-      <c r="FX29" s="8"/>
-      <c r="FY29" s="8"/>
-      <c r="FZ29" s="8"/>
+      <c r="FV29" s="9"/>
+      <c r="FW29" s="9"/>
+      <c r="FX29" s="9"/>
+      <c r="FY29" s="9"/>
+      <c r="FZ29" s="9"/>
       <c r="GB29">
         <v>26</v>
       </c>
@@ -30863,14 +30921,14 @@
       <c r="GG29">
         <v>4</v>
       </c>
-      <c r="GI29" s="8" t="s">
+      <c r="GI29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="GJ29" s="8"/>
-      <c r="GK29" s="8"/>
-      <c r="GL29" s="8"/>
-      <c r="GM29" s="8"/>
-      <c r="GN29" s="8"/>
+      <c r="GJ29" s="9"/>
+      <c r="GK29" s="9"/>
+      <c r="GL29" s="9"/>
+      <c r="GM29" s="9"/>
+      <c r="GN29" s="9"/>
       <c r="GP29">
         <v>26</v>
       </c>
@@ -30889,16 +30947,16 @@
       <c r="GU29">
         <v>4</v>
       </c>
-      <c r="GW29" s="8" t="s">
+      <c r="GW29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="GX29" s="8"/>
-      <c r="GY29" s="8"/>
-      <c r="GZ29" s="8"/>
-      <c r="HA29" s="8"/>
-      <c r="HB29" s="8"/>
-    </row>
-    <row r="30" spans="1:210" x14ac:dyDescent="0.25">
+      <c r="GX29" s="9"/>
+      <c r="GY29" s="9"/>
+      <c r="GZ29" s="9"/>
+      <c r="HA29" s="9"/>
+      <c r="HB29" s="9"/>
+    </row>
+    <row r="30" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27</v>
       </c>
@@ -31428,7 +31486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>28</v>
       </c>
@@ -32042,7 +32100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>29</v>
       </c>
@@ -32656,7 +32714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30</v>
       </c>
@@ -33270,7 +33328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>31</v>
       </c>
@@ -33884,7 +33942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>32</v>
       </c>
@@ -34498,7 +34556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33</v>
       </c>
@@ -35112,7 +35170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>34</v>
       </c>
@@ -35726,7 +35784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>35</v>
       </c>
@@ -36340,7 +36398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>36</v>
       </c>
@@ -36954,7 +37012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>37</v>
       </c>
@@ -37568,7 +37626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>38</v>
       </c>
@@ -38168,7 +38226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>39</v>
       </c>
@@ -38446,7 +38504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:210" x14ac:dyDescent="0.35">
       <c r="B44" t="str">
         <f>B3&amp;","&amp;B4</f>
         <v>3,0</v>
@@ -38728,7 +38786,7 @@
         <v>0,1</v>
       </c>
     </row>
-    <row r="45" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:210" x14ac:dyDescent="0.35">
       <c r="B45" t="str">
         <f>B44&amp;","&amp;B5</f>
         <v>3,0,4</v>
@@ -39010,7 +39068,7 @@
         <v>0,1,5</v>
       </c>
     </row>
-    <row r="46" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:210" x14ac:dyDescent="0.35">
       <c r="B46" t="str">
         <f t="shared" ref="B46:B82" si="317">B45&amp;","&amp;B6</f>
         <v>3,0,4,0</v>
@@ -39292,7 +39350,7 @@
         <v>0,1,5,2</v>
       </c>
     </row>
-    <row r="47" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:210" x14ac:dyDescent="0.35">
       <c r="B47" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4</v>
@@ -39574,7 +39632,7 @@
         <v>0,1,5,2,3</v>
       </c>
     </row>
-    <row r="48" spans="1:210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:210" x14ac:dyDescent="0.35">
       <c r="B48" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4</v>
@@ -39856,7 +39914,7 @@
         <v>0,1,5,2,3,0</v>
       </c>
     </row>
-    <row r="49" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B49" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6</v>
@@ -40138,7 +40196,7 @@
         <v>0,1,5,2,3,0,4</v>
       </c>
     </row>
-    <row r="50" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B50" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1</v>
@@ -40420,7 +40478,7 @@
         <v>0,1,5,2,3,0,4,1</v>
       </c>
     </row>
-    <row r="51" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B51" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2</v>
@@ -40702,7 +40760,7 @@
         <v>0,1,5,2,3,0,4,1,6</v>
       </c>
     </row>
-    <row r="52" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B52" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2</v>
@@ -40984,7 +41042,7 @@
         <v>0,1,5,2,3,0,4,1,6,7</v>
       </c>
     </row>
-    <row r="53" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B53" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5</v>
@@ -41266,7 +41324,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8</v>
       </c>
     </row>
-    <row r="54" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B54" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7</v>
@@ -41548,7 +41606,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0</v>
       </c>
     </row>
-    <row r="55" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B55" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3</v>
@@ -41830,7 +41888,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5</v>
       </c>
     </row>
-    <row r="56" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B56" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3</v>
@@ -42112,7 +42170,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2</v>
       </c>
     </row>
-    <row r="57" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B57" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6</v>
@@ -42394,7 +42452,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4</v>
       </c>
     </row>
-    <row r="58" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B58" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6</v>
@@ -42676,7 +42734,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7</v>
       </c>
     </row>
-    <row r="59" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B59" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6</v>
@@ -42958,7 +43016,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0</v>
       </c>
     </row>
-    <row r="60" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B60" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8</v>
@@ -43240,7 +43298,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8</v>
       </c>
     </row>
-    <row r="61" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B61" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7</v>
@@ -43522,7 +43580,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1</v>
       </c>
     </row>
-    <row r="62" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B62" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5</v>
@@ -43804,7 +43862,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6</v>
       </c>
     </row>
-    <row r="63" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B63" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4</v>
@@ -44086,7 +44144,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3</v>
       </c>
     </row>
-    <row r="64" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B64" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5</v>
@@ -44368,7 +44426,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2</v>
       </c>
     </row>
-    <row r="65" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B65" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0</v>
@@ -44650,7 +44708,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3</v>
       </c>
     </row>
-    <row r="66" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B66" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0</v>
@@ -44932,7 +44990,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1</v>
       </c>
     </row>
-    <row r="67" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B67" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3</v>
@@ -45214,7 +45272,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1</v>
       </c>
     </row>
-    <row r="68" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B68" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4</v>
@@ -45496,7 +45554,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5</v>
       </c>
     </row>
-    <row r="69" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B69" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4</v>
@@ -45778,7 +45836,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4</v>
       </c>
     </row>
-    <row r="70" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B70" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1</v>
@@ -46060,7 +46118,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2</v>
       </c>
     </row>
-    <row r="71" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B71" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8</v>
@@ -46342,7 +46400,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3</v>
       </c>
     </row>
-    <row r="72" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B72" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1</v>
@@ -46624,7 +46682,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0</v>
       </c>
     </row>
-    <row r="73" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B73" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7</v>
@@ -46906,7 +46964,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6</v>
       </c>
     </row>
-    <row r="74" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B74" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2</v>
@@ -47188,7 +47246,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0</v>
       </c>
     </row>
-    <row r="75" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B75" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7</v>
@@ -47470,7 +47528,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0</v>
       </c>
     </row>
-    <row r="76" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B76" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1</v>
@@ -47752,7 +47810,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5</v>
       </c>
     </row>
-    <row r="77" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B77" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5</v>
@@ -48034,7 +48092,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2</v>
       </c>
     </row>
-    <row r="78" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5</v>
@@ -48316,7 +48374,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6</v>
       </c>
     </row>
-    <row r="79" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B79" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5,1</v>
@@ -48598,7 +48656,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6,4</v>
       </c>
     </row>
-    <row r="80" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B80" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5,1,0</v>
@@ -48880,7 +48938,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6,4,7</v>
       </c>
     </row>
-    <row r="81" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B81" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5,1,0,0</v>
@@ -49162,7 +49220,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6,4,7,3</v>
       </c>
     </row>
-    <row r="82" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B82" t="str">
         <f t="shared" si="317"/>
         <v>3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5,1,0,0,3</v>
@@ -49444,7 +49502,7 @@
         <v>0,1,5,2,3,0,4,1,6,7,8,0,5,2,4,7,0,8,1,6,3,2,3,1,1,5,4,2,3,0,6,0,0,5,2,6,4,7,3,4</v>
       </c>
     </row>
-    <row r="83" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B83" t="str">
         <f>"{"&amp;B82&amp;"},"</f>
         <v>{3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,7,5,4,5,0,0,3,4,4,1,8,1,7,2,7,1,5,5,1,0,0,3},</v>
@@ -49502,7 +49560,7 @@
         <v>{0,1,4,1,7,2,3,0,0,1,5,4,6,2,5,3,6,0,4,1,2,4,3,8,5,1,0,6,2,3,7,4,0,1,8,5,6,0,2,7},</v>
       </c>
     </row>
-    <row r="84" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B84" t="str">
         <f>"{"&amp;C82&amp;"},"</f>
         <v>{3,0,4,0,4,4,3,1,2,2,5,7,5,3,6,6,6,1,6,5,8,2,8,0,3,8,4,1,0,1,7,2,7,1,5,5,1,0,0,3},</v>
@@ -49560,7 +49618,7 @@
         <v>{1,0,5,3,0,2,6,0,1,7,3,2,4,8,0,0,3,1,4,5,0,6,1,3,7,6,0,2,3,5,8,6,1,0,4,3,2,0,1,7},</v>
       </c>
     </row>
-    <row r="85" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B85" t="str">
         <f>"{"&amp;D82&amp;"},"</f>
         <v>{3,0,4,0,4,4,6,1,2,2,5,8,7,3,6,6,6,8,7,5,0,5,4,0,0,3,1,1,8,1,7,2,7,1,5,1,1,0,0,3},</v>
@@ -49618,7 +49676,7 @@
         <v>{5,2,1,0,2,0,0,3,1,4,0,6,3,2,7,1,0,5,6,4,1,3,0,8,1,2,4,7,2,5,4,8,4,5,0,3,7,0,5,4},</v>
       </c>
     </row>
-    <row r="86" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B86" t="str">
         <f>"{"&amp;E82&amp;"},"</f>
         <v>{3,0,4,0,4,4,6,5,2,2,5,7,5,3,6,6,6,8,6,5,4,5,0,0,3,6,4,1,8,1,1,2,7,1,5,5,1,0,0,6},</v>
@@ -49676,7 +49734,7 @@
         <v>{0,0,1,7,2,4,2,3,0,1,1,6,4,2,5,3,7,4,6,1,8,0,7,2,5,7,6,4,8,1,4,0,6,3,8,0,5,2,0,7},</v>
       </c>
     </row>
-    <row r="87" spans="2:203" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:203" x14ac:dyDescent="0.35">
       <c r="B87" t="str">
         <f>"{"&amp;F82&amp;"},"</f>
         <v>{3,0,4,0,4,4,6,1,2,2,5,7,3,3,6,6,6,8,0,5,4,5,6,0,3,0,1,1,8,1,7,2,7,1,5,5,1,0,0,3},</v>
@@ -49736,11 +49794,54 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="CC1:CF1"/>
-    <mergeCell ref="CC10:CF10"/>
-    <mergeCell ref="CC19:CF19"/>
-    <mergeCell ref="BL1:BQ1"/>
-    <mergeCell ref="BL15:BQ15"/>
+    <mergeCell ref="GI1:GN1"/>
+    <mergeCell ref="GI15:GN15"/>
+    <mergeCell ref="GI29:GN29"/>
+    <mergeCell ref="GP1:GU1"/>
+    <mergeCell ref="GW1:HB1"/>
+    <mergeCell ref="GW15:HB15"/>
+    <mergeCell ref="GW29:HB29"/>
+    <mergeCell ref="FN1:FS1"/>
+    <mergeCell ref="FU1:FZ1"/>
+    <mergeCell ref="FU15:FZ15"/>
+    <mergeCell ref="FU29:FZ29"/>
+    <mergeCell ref="GB1:GG1"/>
+    <mergeCell ref="ES1:EX1"/>
+    <mergeCell ref="ES15:EX15"/>
+    <mergeCell ref="ES29:EX29"/>
+    <mergeCell ref="EZ1:FE1"/>
+    <mergeCell ref="FG1:FL1"/>
+    <mergeCell ref="FG15:FL15"/>
+    <mergeCell ref="FG29:FL29"/>
+    <mergeCell ref="DX1:EC1"/>
+    <mergeCell ref="EE1:EJ1"/>
+    <mergeCell ref="EE15:EJ15"/>
+    <mergeCell ref="EE29:EJ29"/>
+    <mergeCell ref="EL1:EQ1"/>
+    <mergeCell ref="DC1:DH1"/>
+    <mergeCell ref="DC15:DH15"/>
+    <mergeCell ref="DC29:DH29"/>
+    <mergeCell ref="DJ1:DO1"/>
+    <mergeCell ref="DQ1:DV1"/>
+    <mergeCell ref="DQ15:DV15"/>
+    <mergeCell ref="DQ29:DV29"/>
+    <mergeCell ref="CH1:CM1"/>
+    <mergeCell ref="CO1:CT1"/>
+    <mergeCell ref="CO15:CT15"/>
+    <mergeCell ref="CO29:CT29"/>
+    <mergeCell ref="CV1:DA1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AJ15:AO15"/>
+    <mergeCell ref="AJ29:AO29"/>
     <mergeCell ref="BL29:BQ29"/>
     <mergeCell ref="BS1:BV1"/>
     <mergeCell ref="BX1:CA1"/>
@@ -49749,54 +49850,11 @@
     <mergeCell ref="AX15:BC15"/>
     <mergeCell ref="AX29:BC29"/>
     <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AJ15:AO15"/>
-    <mergeCell ref="AJ29:AO29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="CH1:CM1"/>
-    <mergeCell ref="CO1:CT1"/>
-    <mergeCell ref="CO15:CT15"/>
-    <mergeCell ref="CO29:CT29"/>
-    <mergeCell ref="CV1:DA1"/>
-    <mergeCell ref="DC1:DH1"/>
-    <mergeCell ref="DC15:DH15"/>
-    <mergeCell ref="DC29:DH29"/>
-    <mergeCell ref="DJ1:DO1"/>
-    <mergeCell ref="DQ1:DV1"/>
-    <mergeCell ref="DQ15:DV15"/>
-    <mergeCell ref="DQ29:DV29"/>
-    <mergeCell ref="DX1:EC1"/>
-    <mergeCell ref="EE1:EJ1"/>
-    <mergeCell ref="EE15:EJ15"/>
-    <mergeCell ref="EE29:EJ29"/>
-    <mergeCell ref="EL1:EQ1"/>
-    <mergeCell ref="ES1:EX1"/>
-    <mergeCell ref="ES15:EX15"/>
-    <mergeCell ref="ES29:EX29"/>
-    <mergeCell ref="EZ1:FE1"/>
-    <mergeCell ref="FG1:FL1"/>
-    <mergeCell ref="FG15:FL15"/>
-    <mergeCell ref="FG29:FL29"/>
-    <mergeCell ref="FN1:FS1"/>
-    <mergeCell ref="FU1:FZ1"/>
-    <mergeCell ref="FU15:FZ15"/>
-    <mergeCell ref="FU29:FZ29"/>
-    <mergeCell ref="GB1:GG1"/>
-    <mergeCell ref="GI1:GN1"/>
-    <mergeCell ref="GI15:GN15"/>
-    <mergeCell ref="GI29:GN29"/>
-    <mergeCell ref="GP1:GU1"/>
-    <mergeCell ref="GW1:HB1"/>
-    <mergeCell ref="GW15:HB15"/>
-    <mergeCell ref="GW29:HB29"/>
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="CC10:CF10"/>
+    <mergeCell ref="CC19:CF19"/>
+    <mergeCell ref="BL1:BQ1"/>
+    <mergeCell ref="BL15:BQ15"/>
   </mergeCells>
   <conditionalFormatting sqref="BF3:BJ42">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -49808,18 +49866,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -49827,7 +49887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -49898,7 +49958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -49991,7 +50051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -50083,7 +50143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -50175,7 +50235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -50267,7 +50327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -50359,7 +50419,7 @@
         <v>1.9531250000000002E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -50452,7 +50512,7 @@
         <v>2.03125E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G10">
         <v>1</v>
       </c>
@@ -50515,13 +50575,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B11">
         <f ca="1">D6-D3</f>
         <v>1.3073516005859376</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>52</v>
       </c>
@@ -50534,7 +50594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>53</v>
       </c>
@@ -50547,7 +50607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>27</v>
       </c>
@@ -50560,13 +50620,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G15">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -50586,7 +50646,7 @@
         <v>4.1505012890624995</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -50601,7 +50661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -50610,7 +50670,7 @@
         <v>0.2038752838763519</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -50619,7 +50679,7 @@
         <v>4.1005731754109029E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -50628,7 +50688,7 @@
         <v>7.1008123600547021E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -50637,7 +50697,7 @@
         <v>2.930365329767419E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -50646,7 +50706,7 @@
         <v>0.95500900022722224</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -50654,7 +50714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -50674,7 +50734,7 @@
         <v>0.99350649350649356</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -50694,7 +50754,7 @@
         <v>6.4935064935064939E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -50707,7 +50767,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -50726,14 +50786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -50742,7 +50802,7 @@
         <v>7.6749999999999989</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -50756,7 +50816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -50773,7 +50833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -50790,7 +50850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -50807,7 +50867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -50824,7 +50884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -50841,7 +50901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -50858,7 +50918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -50875,7 +50935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -50892,7 +50952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -50909,7 +50969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -50926,7 +50986,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
@@ -50943,7 +51003,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -50966,68 +51026,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AC1" s="8" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AG1" s="8" t="s">
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AG1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AK1" s="8" t="s">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AK1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -51128,7 +51188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -51232,7 +51292,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -51336,7 +51396,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -51440,7 +51500,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -51544,7 +51604,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -51648,7 +51708,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -51752,7 +51812,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -51856,7 +51916,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -51960,7 +52020,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -52064,7 +52124,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -52168,7 +52228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -52261,7 +52321,7 @@
         <v>5.2086695309910693</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -52354,7 +52414,7 @@
         <v>6.3147178559736714</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -52447,7 +52507,7 @@
         <v>6.3148826901327899</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -52540,7 +52600,7 @@
         <v>5.2062105359425876</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -52633,7 +52693,7 @@
         <v>5.0917410475489726</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -52726,7 +52786,7 @@
         <v>5.61172602427615</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -52819,7 +52879,7 @@
         <v>5.0900673888847505</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>101</v>
       </c>
@@ -52891,7 +52951,7 @@
         <v>4.8949695921583913</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -52963,7 +53023,7 @@
         <v>5.4795251943103267</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>64</v>
       </c>
@@ -53033,6 +53093,1896 @@
       <c r="AM23">
         <f>MAX(AM3:AM19)</f>
         <v>6.3148826901327899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f>1000000/1000</f>
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(N31:N47)</f>
+        <v>0.50165295294128287</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:V28" si="2">AVERAGE(O31:O47)</f>
+        <v>0.72680280588178126</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>1.2094629647077226</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>2.7307545352912439</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>8.1642386176447275</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>6.692213335293598</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>9.0111678529362891</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>4.4736297117706139</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>3.3914017176544902</v>
+      </c>
+      <c r="X28">
+        <f t="array" ref="X28">SUMPRODUCT(N28:V28,TRANSPOSE(AQ3:AQ11))</f>
+        <v>5.4806882617643184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f ca="1">OFFSET($C$3,$B31,C$30*$A$30)</f>
+        <v>0.482755100600886</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:K46" ca="1" si="3">OFFSET($C$3,$B31,D$30*$A$30)</f>
+        <v>0.66255022583211698</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0742034531243101</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4769479511328898</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6472714064296996</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8754067628923998</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9559234955656697</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.94158459461128</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4876535748372701</v>
+      </c>
+      <c r="N31">
+        <v>0.48264400000012703</v>
+      </c>
+      <c r="O31">
+        <v>0.66103539999952099</v>
+      </c>
+      <c r="P31">
+        <v>1.07073610000051</v>
+      </c>
+      <c r="Q31">
+        <v>2.4770548999970901</v>
+      </c>
+      <c r="R31">
+        <v>7.6019460999983801</v>
+      </c>
+      <c r="S31">
+        <v>5.9134805000008299</v>
+      </c>
+      <c r="T31">
+        <v>7.9813931999972798</v>
+      </c>
+      <c r="U31">
+        <v>3.91334970000793</v>
+      </c>
+      <c r="V31">
+        <v>2.4777362000049101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:K47" ca="1" si="4">OFFSET($C$3,$B32,C$30*$A$30)</f>
+        <v>0.47843779363264799</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66120855259147604</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0725632549286499</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.46505683229213</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6623568915569003</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8475140797015097</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.0065494262361696</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.3822988322104397</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.85718134708898</v>
+      </c>
+      <c r="N32">
+        <v>0.47659610000006503</v>
+      </c>
+      <c r="O32">
+        <v>0.66062489999955898</v>
+      </c>
+      <c r="P32">
+        <v>1.0741937000006401</v>
+      </c>
+      <c r="Q32">
+        <v>2.4584219999966299</v>
+      </c>
+      <c r="R32">
+        <v>7.6097890999985198</v>
+      </c>
+      <c r="S32">
+        <v>5.8868252000009003</v>
+      </c>
+      <c r="T32">
+        <v>8.06953089999738</v>
+      </c>
+      <c r="U32">
+        <v>4.3841048000069502</v>
+      </c>
+      <c r="V32">
+        <v>2.8472029000068302</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48281924911470298</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66250113672753097</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.07438651253226</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4780372481622601</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.64149808959829</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8813882678431399</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9601530203183897</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9367495451061698</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4855080599859698</v>
+      </c>
+      <c r="N33">
+        <v>0.48250000000012699</v>
+      </c>
+      <c r="O33">
+        <v>0.66705779999950798</v>
+      </c>
+      <c r="P33">
+        <v>1.06933320000049</v>
+      </c>
+      <c r="Q33">
+        <v>2.4656015999969898</v>
+      </c>
+      <c r="R33">
+        <v>7.6136219999984203</v>
+      </c>
+      <c r="S33">
+        <v>5.8677380000008101</v>
+      </c>
+      <c r="T33">
+        <v>7.9758160999976599</v>
+      </c>
+      <c r="U33">
+        <v>3.96650580000808</v>
+      </c>
+      <c r="V33">
+        <v>2.4887799000050199</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.51426915998756995</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.72292582075122602</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1933943340330799</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.59903218875623</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.3184548618741001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0541718123961603</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1984922084357592</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0947137134226699</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.65109103028156</v>
+      </c>
+      <c r="N34">
+        <v>0.51548260000018697</v>
+      </c>
+      <c r="O34">
+        <v>0.72213009999936995</v>
+      </c>
+      <c r="P34">
+        <v>1.1986318000012499</v>
+      </c>
+      <c r="Q34">
+        <v>2.6366808999975002</v>
+      </c>
+      <c r="R34">
+        <v>7.3179286999989399</v>
+      </c>
+      <c r="S34">
+        <v>6.0563538000006503</v>
+      </c>
+      <c r="T34">
+        <v>8.2693014999972601</v>
+      </c>
+      <c r="U34">
+        <v>4.1106946000083502</v>
+      </c>
+      <c r="V34">
+        <v>2.6398515000057499</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.55766008054451799</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.83677159497290299</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4248748603735899</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0585359608712399</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6375549607605908</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1426732875130403</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8286665548397796</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.30876458456971</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0782370796396696</v>
+      </c>
+      <c r="N35">
+        <v>0.55765909999989804</v>
+      </c>
+      <c r="O35">
+        <v>0.83624529999922104</v>
+      </c>
+      <c r="P35">
+        <v>1.42251470000337</v>
+      </c>
+      <c r="Q35">
+        <v>3.0399244999975301</v>
+      </c>
+      <c r="R35">
+        <v>8.6239658999969304</v>
+      </c>
+      <c r="S35">
+        <v>7.1711167999986598</v>
+      </c>
+      <c r="T35">
+        <v>9.8329348999915993</v>
+      </c>
+      <c r="U35">
+        <v>5.2742840000024298</v>
+      </c>
+      <c r="V35">
+        <v>4.0841925000099497</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.55812727856176303</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.83758192170270995</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.42628966236092</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0615396935444101</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6489585152161901</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1534408617708296</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8381264063252907</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3055093568470202</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0787047826105001</v>
+      </c>
+      <c r="N36">
+        <v>0.55612669999990705</v>
+      </c>
+      <c r="O36">
+        <v>0.83230199999921906</v>
+      </c>
+      <c r="P36">
+        <v>1.4261197000033401</v>
+      </c>
+      <c r="Q36">
+        <v>3.0589630999977002</v>
+      </c>
+      <c r="R36">
+        <v>8.6728165999967501</v>
+      </c>
+      <c r="S36">
+        <v>7.0879947999989001</v>
+      </c>
+      <c r="T36">
+        <v>9.8208521999916396</v>
+      </c>
+      <c r="U36">
+        <v>5.3281352000021798</v>
+      </c>
+      <c r="V36">
+        <v>4.0973513000099597</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.51410736790788802</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.72266911777036802</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.19280108651372</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5948643471726598</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.31158458464696</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0584684559611297</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.2033254856641005</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0927341886707298</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6544297431535102</v>
+      </c>
+      <c r="N37">
+        <v>0.51366630000019098</v>
+      </c>
+      <c r="O37">
+        <v>0.72350779999938397</v>
+      </c>
+      <c r="P37">
+        <v>1.1924225000012001</v>
+      </c>
+      <c r="Q37">
+        <v>2.6047941999974999</v>
+      </c>
+      <c r="R37">
+        <v>7.3162262999987702</v>
+      </c>
+      <c r="S37">
+        <v>6.0921483000004502</v>
+      </c>
+      <c r="T37">
+        <v>8.1407652999973106</v>
+      </c>
+      <c r="U37">
+        <v>4.0955666000083202</v>
+      </c>
+      <c r="V37">
+        <v>2.6494051000059402</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.51604311015732796</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78189820908855701</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3229401669940899</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1463527628844301</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1123116043492303</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9009944855588499</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4046730004103303</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5331092974692497</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1854701786789397</v>
+      </c>
+      <c r="N38">
+        <v>0.51593490000015296</v>
+      </c>
+      <c r="O38">
+        <v>0.77884209999933196</v>
+      </c>
+      <c r="P38">
+        <v>1.32489530000296</v>
+      </c>
+      <c r="Q38">
+        <v>3.1421212999975201</v>
+      </c>
+      <c r="R38">
+        <v>9.0917811999956406</v>
+      </c>
+      <c r="S38">
+        <v>6.9037649999992103</v>
+      </c>
+      <c r="T38">
+        <v>9.4211736999938793</v>
+      </c>
+      <c r="U38">
+        <v>4.5475897000057097</v>
+      </c>
+      <c r="V38">
+        <v>4.1968566000098804</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.477346070419713</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.762062567279434</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3013550984364399</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0677542974567</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8058213765641398</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.71600618846358</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3543289607408102</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.8460054063096898</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.38772310929863</v>
+      </c>
+      <c r="N39">
+        <v>0.477415600000135</v>
+      </c>
+      <c r="O39">
+        <v>0.760199699999482</v>
+      </c>
+      <c r="P39">
+        <v>1.3052367000035201</v>
+      </c>
+      <c r="Q39">
+        <v>3.0500084999969101</v>
+      </c>
+      <c r="R39">
+        <v>8.7376404999972301</v>
+      </c>
+      <c r="S39">
+        <v>6.73519419999952</v>
+      </c>
+      <c r="T39">
+        <v>9.36138269999452</v>
+      </c>
+      <c r="U39">
+        <v>4.8346479000037998</v>
+      </c>
+      <c r="V39">
+        <v>5.3672722000015796</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.51588786263717401</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78189705068637305</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3231706125264799</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1487051589250901</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1092588815780893</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9151269905108403</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4178696637781698</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5319079707376</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1852717430364503</v>
+      </c>
+      <c r="N40">
+        <v>0.51406930000015805</v>
+      </c>
+      <c r="O40">
+        <v>0.77893399999934199</v>
+      </c>
+      <c r="P40">
+        <v>1.31928550000287</v>
+      </c>
+      <c r="Q40">
+        <v>3.1405461999976501</v>
+      </c>
+      <c r="R40">
+        <v>9.1293557999954</v>
+      </c>
+      <c r="S40">
+        <v>7.0538596999990402</v>
+      </c>
+      <c r="T40">
+        <v>9.4817605999937502</v>
+      </c>
+      <c r="U40">
+        <v>4.5272726000055004</v>
+      </c>
+      <c r="V40">
+        <v>4.1871658000098897</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48782190236724399</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.68318416703657203</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1167884031165101</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.45153197090317</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6390292974932299</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6454260598955202</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8016390301925505</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0923051688412997</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.67852035698469</v>
+      </c>
+      <c r="N41">
+        <v>0.48798460000018501</v>
+      </c>
+      <c r="O41">
+        <v>0.68226359999947495</v>
+      </c>
+      <c r="P41">
+        <v>1.11813500000091</v>
+      </c>
+      <c r="Q41">
+        <v>2.46315749999708</v>
+      </c>
+      <c r="R41">
+        <v>7.6528722999983696</v>
+      </c>
+      <c r="S41">
+        <v>6.6690296999990997</v>
+      </c>
+      <c r="T41">
+        <v>8.7790313999955494</v>
+      </c>
+      <c r="U41">
+        <v>4.0884611000081597</v>
+      </c>
+      <c r="V41">
+        <v>2.6692111000062901</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.49586210973991102</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.74582967373225795</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.25281614735599</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.75856483206698</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5337410398957694</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1978245943675905</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.955659445852699</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3028358617170701</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0896417429204099</v>
+      </c>
+      <c r="N42">
+        <v>0.497230800000032</v>
+      </c>
+      <c r="O42">
+        <v>0.743722399999455</v>
+      </c>
+      <c r="P42">
+        <v>1.2579284000030699</v>
+      </c>
+      <c r="Q42">
+        <v>2.7592176999963001</v>
+      </c>
+      <c r="R42">
+        <v>8.5051902999982794</v>
+      </c>
+      <c r="S42">
+        <v>8.1582576999982397</v>
+      </c>
+      <c r="T42">
+        <v>10.9273202999926</v>
+      </c>
+      <c r="U42">
+        <v>5.2967872000011296</v>
+      </c>
+      <c r="V42">
+        <v>4.07503080000994</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.49579891170850099</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.74578271333687596</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2526010186430401</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7578528122667301</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5338379309860795</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1989937329828706</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.9548777923888</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3050143567682699</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0868129607436297</v>
+      </c>
+      <c r="N43">
+        <v>0.49523420000003698</v>
+      </c>
+      <c r="O43">
+        <v>0.74785189999947299</v>
+      </c>
+      <c r="P43">
+        <v>1.24527650000298</v>
+      </c>
+      <c r="Q43">
+        <v>2.7553621999962599</v>
+      </c>
+      <c r="R43">
+        <v>8.5492807999978506</v>
+      </c>
+      <c r="S43">
+        <v>8.2043612999979505</v>
+      </c>
+      <c r="T43">
+        <v>10.8735432999924</v>
+      </c>
+      <c r="U43">
+        <v>5.3118086000010498</v>
+      </c>
+      <c r="V43">
+        <v>4.0920065000100498</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.487610635039395</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.68306905812259699</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1165668585720301</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4505765352605402</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6344487925436004</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6440726242528996</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7987850995004298</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0873047926043302</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.67803564411415</v>
+      </c>
+      <c r="N44">
+        <v>0.48695740000016002</v>
+      </c>
+      <c r="O44">
+        <v>0.68678519999947996</v>
+      </c>
+      <c r="P44">
+        <v>1.1119989000008399</v>
+      </c>
+      <c r="Q44">
+        <v>2.4412070999970301</v>
+      </c>
+      <c r="R44">
+        <v>7.5856833999983202</v>
+      </c>
+      <c r="S44">
+        <v>6.61697929999898</v>
+      </c>
+      <c r="T44">
+        <v>8.7914759999952796</v>
+      </c>
+      <c r="U44">
+        <v>4.09778560000822</v>
+      </c>
+      <c r="V44">
+        <v>2.6780666000063502</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48482215977326099</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.67842827561470398</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.110285244837</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5790971292989902</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.0209301687629999</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1837231489859699</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.2074985945305201</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9359311292185502</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.86321736687316</v>
+      </c>
+      <c r="N45">
+        <v>0.48408700000017701</v>
+      </c>
+      <c r="O45">
+        <v>0.67708059999949799</v>
+      </c>
+      <c r="P45">
+        <v>1.1208329000008601</v>
+      </c>
+      <c r="Q45">
+        <v>2.5578356999973102</v>
+      </c>
+      <c r="R45">
+        <v>8.0574782999979195</v>
+      </c>
+      <c r="S45">
+        <v>6.2454898999996402</v>
+      </c>
+      <c r="T45">
+        <v>8.1379124999970092</v>
+      </c>
+      <c r="U45">
+        <v>3.9375039000080498</v>
+      </c>
+      <c r="V45">
+        <v>2.8584014000073901</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.50141352591400101</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.724217682016425</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.19910661187888</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8003221787299499</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7033238518724705</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.8555489905086304</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.0889747330828907</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.3788430994503704</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4049814064137398</v>
+      </c>
+      <c r="N46">
+        <v>0.50031410000012599</v>
+      </c>
+      <c r="O46">
+        <v>0.72329619999945705</v>
+      </c>
+      <c r="P46">
+        <v>1.1930016000016599</v>
+      </c>
+      <c r="Q46">
+        <v>2.7852216999969399</v>
+      </c>
+      <c r="R46">
+        <v>8.7004092999965792</v>
+      </c>
+      <c r="S46">
+        <v>6.9076366999983803</v>
+      </c>
+      <c r="T46">
+        <v>9.1161654999944997</v>
+      </c>
+      <c r="U46">
+        <v>4.3911017000066099</v>
+      </c>
+      <c r="V46">
+        <v>3.39877380000928</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48486598156570698</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.67844708749041205</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.11007811612409</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5786315253373999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.0136368321278706</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.1851338717570403</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.2067719905689298</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9328700698114001</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8633681391486698</v>
+      </c>
+      <c r="N47">
+        <v>0.484197500000145</v>
+      </c>
+      <c r="O47">
+        <v>0.67376869999950595</v>
+      </c>
+      <c r="P47">
+        <v>1.1103279000008099</v>
+      </c>
+      <c r="Q47">
+        <v>2.5867079999971998</v>
+      </c>
+      <c r="R47">
+        <v>8.0260698999981201</v>
+      </c>
+      <c r="S47">
+        <v>6.1973957999999003</v>
+      </c>
+      <c r="T47">
+        <v>8.2094933999972994</v>
+      </c>
+      <c r="U47">
+        <v>3.9461061000079498</v>
+      </c>
+      <c r="V47">
+        <v>2.8465250000073201</v>
+      </c>
+    </row>
+    <row r="50" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N50">
+        <f ca="1">N31-C31</f>
+        <v>-1.1110060075897321E-4</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50:V50" ca="1" si="5">O31-D31</f>
+        <v>-1.5148258325959896E-3</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.4673531238000876E-3</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0694886420026251E-4</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.532530643131949E-2</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8073737108430095E-2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5469704431610118E-2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.8234894603349936E-2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.9173748323599931E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N51">
+        <f t="shared" ref="N51:V51" ca="1" si="6">N32-C32</f>
+        <v>-1.8416936325829636E-3</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.8365259191706098E-4</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.630445071990172E-3</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ca="1" si="6"/>
+        <v>-6.6348322955001038E-3</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.2567791558380428E-2</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9311120299390545E-2</v>
+      </c>
+      <c r="T51">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2981473761210438E-2</v>
+      </c>
+      <c r="U51">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.8059677965105436E-3</v>
+      </c>
+      <c r="V51">
+        <f t="shared" ca="1" si="6"/>
+        <v>-9.9784470821497884E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N52">
+        <f t="shared" ref="N52:V52" ca="1" si="7">N33-C33</f>
+        <v>-3.1924911457598126E-4</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.5566632719770128E-3</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5.0533125317699934E-3</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.2435648165270319E-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2.7876089599869758E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.3650267842329811E-2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5663079679270275E-2</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.975625490191014E-2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.2718400190501207E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N53">
+        <f t="shared" ref="N53:V53" ca="1" si="8">N34-C34</f>
+        <v>1.2134400126170286E-3</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ca="1" si="8"/>
+        <v>-7.9572075185607716E-4</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2374659681699853E-3</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7648711241270227E-2</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ca="1" si="8"/>
+        <v>-5.2616187516019153E-4</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.1819876044899544E-3</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.0809291561500842E-2</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.598088658568031E-2</v>
+      </c>
+      <c r="V53">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.123953027581015E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N54">
+        <f t="shared" ref="N54:V54" ca="1" si="9">N35-C35</f>
+        <v>-9.8054461994401265E-7</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.2629497368195111E-4</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.3601603702199103E-3</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.8611460873709795E-2</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.3589060763660399E-2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.8443512485619493E-2</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.2683451518197302E-3</v>
+      </c>
+      <c r="U54">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.4480584567280204E-2</v>
+      </c>
+      <c r="V54">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.9554203702800734E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N55">
+        <f t="shared" ref="N55:V55" ca="1" si="10">N36-C36</f>
+        <v>-2.0005785618559813E-3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.2799217034908974E-3</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.6996235757993361E-4</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.5765935467099155E-3</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.3858084780560063E-2</v>
+      </c>
+      <c r="S55">
+        <f t="shared" ca="1" si="10"/>
+        <v>-6.5446061771929465E-2</v>
+      </c>
+      <c r="T55">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.7274206333651065E-2</v>
+      </c>
+      <c r="U55">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.2625843155159586E-2</v>
+      </c>
+      <c r="V55">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8646517399459661E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N56">
+        <f t="shared" ref="N56:V56" ca="1" si="11">N37-C37</f>
+        <v>-4.4106790769704585E-4</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.3868222901595235E-4</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ca="1" si="11"/>
+        <v>-3.7858651251987396E-4</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.9298528248401574E-3</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.6417153518101273E-3</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.367984403932045E-2</v>
+      </c>
+      <c r="T56">
+        <f t="shared" ca="1" si="11"/>
+        <v>-6.2560185666789891E-2</v>
+      </c>
+      <c r="U56">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.8324113375903792E-3</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ca="1" si="11"/>
+        <v>-5.0246431475700071E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N57">
+        <f t="shared" ref="N57:V57" ca="1" si="12">N38-C38</f>
+        <v>-1.0821015717499272E-4</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ca="1" si="12"/>
+        <v>-3.0561090892250453E-3</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.9551330088700691E-3</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ca="1" si="12"/>
+        <v>-4.231462886910009E-3</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ca="1" si="12"/>
+        <v>-2.053040435358966E-2</v>
+      </c>
+      <c r="S57">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.770514440360472E-3</v>
+      </c>
+      <c r="T57">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.650069958354905E-2</v>
+      </c>
+      <c r="U57">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.4480402536459991E-2</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.1386421330940699E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N58">
+        <f t="shared" ref="N58:V58" ca="1" si="13">N39-C39</f>
+        <v>6.9529580422000858E-5</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.8628672799519963E-3</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.8816015670801729E-3</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.774579745978988E-2</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ca="1" si="13"/>
+        <v>-6.8180876566909632E-2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.9188011535939964E-2</v>
+      </c>
+      <c r="T58">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.0537392537097787E-3</v>
+      </c>
+      <c r="U58">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.1357506305889942E-2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.0450909297050401E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N59">
+        <f t="shared" ref="N59:V59" ca="1" si="14">N40-C40</f>
+        <v>-1.8185626370159635E-3</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.9630506870310658E-3</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.8851125236099016E-3</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ca="1" si="14"/>
+        <v>-8.1589589274400076E-3</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.0096918417310761E-2</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.13873270948819982</v>
+      </c>
+      <c r="T59">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.3890936215580396E-2</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ca="1" si="14"/>
+        <v>-4.6353707320996307E-3</v>
+      </c>
+      <c r="V59">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.894056973439362E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N60">
+        <f t="shared" ref="N60:V60" ca="1" si="15">N41-C41</f>
+        <v>1.6269763294102235E-4</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ca="1" si="15"/>
+        <v>-9.2056703709708643E-4</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.3465968843999754E-3</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.1625529093910014E-2</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.3843002505139701E-2</v>
+      </c>
+      <c r="S60">
+        <f t="shared" ca="1" si="15"/>
+        <v>2.3603640103579515E-2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" ca="1" si="15"/>
+        <v>-2.2607630197001072E-2</v>
+      </c>
+      <c r="U60">
+        <f t="shared" ca="1" si="15"/>
+        <v>-3.8440688331400352E-3</v>
+      </c>
+      <c r="V60">
+        <f t="shared" ca="1" si="15"/>
+        <v>-9.3092569783999046E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N61">
+        <f t="shared" ref="N61:V61" ca="1" si="16">N42-C42</f>
+        <v>1.368690260120986E-3</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ca="1" si="16"/>
+        <v>-2.1072737328029501E-3</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.112252647079929E-3</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.5286792932006676E-4</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ca="1" si="16"/>
+        <v>-2.8550739897490018E-2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" ca="1" si="16"/>
+        <v>-3.9566894369350791E-2</v>
+      </c>
+      <c r="T61">
+        <f t="shared" ca="1" si="16"/>
+        <v>-2.833914586009989E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ca="1" si="16"/>
+        <v>-6.0486617159405398E-3</v>
+      </c>
+      <c r="V61">
+        <f t="shared" ca="1" si="16"/>
+        <v>-1.4610942910469937E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N62">
+        <f t="shared" ref="N62:V62" ca="1" si="17">N43-C43</f>
+        <v>-5.647117084640052E-4</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ca="1" si="17"/>
+        <v>2.0691866625970334E-3</v>
+      </c>
+      <c r="P62">
+        <f t="shared" ca="1" si="17"/>
+        <v>-7.3245186400601181E-3</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ca="1" si="17"/>
+        <v>-2.4906122704702049E-3</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.5442869011771165E-2</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ca="1" si="17"/>
+        <v>5.3675670150798993E-3</v>
+      </c>
+      <c r="T62">
+        <f t="shared" ca="1" si="17"/>
+        <v>-8.1334492396399227E-2</v>
+      </c>
+      <c r="U62">
+        <f t="shared" ca="1" si="17"/>
+        <v>6.7942432327798841E-3</v>
+      </c>
+      <c r="V62">
+        <f t="shared" ca="1" si="17"/>
+        <v>5.1935392664201885E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N63">
+        <f t="shared" ref="N63:V63" ca="1" si="18">N44-C44</f>
+        <v>-6.5323503923497839E-4</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ca="1" si="18"/>
+        <v>3.7161418768829613E-3</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ca="1" si="18"/>
+        <v>-4.5679585711901893E-3</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ca="1" si="18"/>
+        <v>-9.3694352635100842E-3</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ca="1" si="18"/>
+        <v>-4.8765392545280228E-2</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ca="1" si="18"/>
+        <v>-2.7093324253919526E-2</v>
+      </c>
+      <c r="T63">
+        <f t="shared" ca="1" si="18"/>
+        <v>-7.3090995051501295E-3</v>
+      </c>
+      <c r="U63">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.0480807403889791E-2</v>
+      </c>
+      <c r="V63">
+        <f t="shared" ca="1" si="18"/>
+        <v>3.0955892200257296E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N64">
+        <f t="shared" ref="N64:V64" ca="1" si="19">N45-C45</f>
+        <v>-7.3515977308397096E-4</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ca="1" si="19"/>
+        <v>-1.3476756152059899E-3</v>
+      </c>
+      <c r="P64">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.0547655163860137E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="19"/>
+        <v>-2.1261429301679957E-2</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ca="1" si="19"/>
+        <v>3.6548131234919623E-2</v>
+      </c>
+      <c r="S64">
+        <f t="shared" ca="1" si="19"/>
+        <v>6.1766751013670351E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" ca="1" si="19"/>
+        <v>-6.9586094533510945E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.572770789499689E-3</v>
+      </c>
+      <c r="V64">
+        <f t="shared" ca="1" si="19"/>
+        <v>-4.8159668657699051E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N65">
+        <f t="shared" ref="N65:V65" ca="1" si="20">N46-C46</f>
+        <v>-1.0994259138750184E-3</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ca="1" si="20"/>
+        <v>-9.2148201696795606E-4</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ca="1" si="20"/>
+        <v>-6.1050118772201234E-3</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="20"/>
+        <v>-1.5100478733010014E-2</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ca="1" si="20"/>
+        <v>-2.9145518758912914E-3</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ca="1" si="20"/>
+        <v>5.2087709489749834E-2</v>
+      </c>
+      <c r="T65">
+        <f t="shared" ca="1" si="20"/>
+        <v>2.7190766911608932E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" ca="1" si="20"/>
+        <v>1.2258600556239507E-2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" ca="1" si="20"/>
+        <v>-6.2076064044598311E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N66">
+        <f t="shared" ref="N66:V66" ca="1" si="21">N47-C47</f>
+        <v>-6.6848156556198468E-4</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ca="1" si="21"/>
+        <v>-4.6783874909060996E-3</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ca="1" si="21"/>
+        <v>2.497838767199223E-4</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ca="1" si="21"/>
+        <v>8.0764746597998816E-3</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.2433067870249559E-2</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.2261928242859987E-2</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ca="1" si="21"/>
+        <v>2.7214094283696255E-3</v>
+      </c>
+      <c r="U66">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.3236030196549731E-2</v>
+      </c>
+      <c r="V66">
+        <f t="shared" ca="1" si="21"/>
+        <v>-1.6843139141349717E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="14:22" x14ac:dyDescent="0.35">
+      <c r="N68">
+        <f ca="1">MAX(N50:V66)</f>
+        <v>0.13873270948819982</v>
+      </c>
+      <c r="O68">
+        <f ca="1">AVERAGE(N50:V66)</f>
+        <v>2.721564314173218E-4</v>
       </c>
     </row>
   </sheetData>
@@ -53054,21 +55004,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -53127,7 +55077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -53143,19 +55093,19 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>5595036</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>2010972</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>772672</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>255184</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>80662</v>
       </c>
       <c r="K3">
@@ -53186,7 +55136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -53202,19 +55152,19 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>3297950</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1158426</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>378600</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>102934</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>21116</v>
       </c>
       <c r="K4">
@@ -53245,7 +55195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -53261,19 +55211,19 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1628378</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>305487</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>90492</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>18655</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>4192</v>
       </c>
       <c r="K5">
@@ -53304,7 +55254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -53320,19 +55270,19 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>1941678</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>481210</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>120942</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>24774</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>5052</v>
       </c>
       <c r="K6">
@@ -53363,7 +55313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -53379,19 +55329,19 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>2487682</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>794101</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>244204</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>80421</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>22974</v>
       </c>
       <c r="K7">
@@ -53422,7 +55372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -53438,19 +55388,19 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>2545664</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>597812</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>160466</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>44241</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>10150</v>
       </c>
       <c r="K8">
@@ -53481,7 +55431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -53497,19 +55447,19 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>5019980</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1922890</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>992810</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>325815</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>127201</v>
       </c>
       <c r="K9">
@@ -53540,7 +55490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -53556,19 +55506,19 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>114816</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>9792</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>0</v>
       </c>
       <c r="K10">
@@ -53599,7 +55549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -53615,19 +55565,19 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>52704</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>2448</v>
       </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="K11">
@@ -53658,7 +55608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -53674,19 +55624,19 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>0</v>
       </c>
       <c r="K12">
@@ -53717,7 +55667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -53776,18 +55726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>SUM(B13:S13)</f>
         <v>102400000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -53846,7 +55796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ref="A17:A26" si="0">A3</f>
         <v>0</v>
@@ -53924,7 +55874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -54002,7 +55952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -54080,7 +56030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -54158,7 +56108,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -54236,7 +56186,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -54314,7 +56264,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -54392,7 +56342,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -54470,7 +56420,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -54548,7 +56498,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -54626,12 +56576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -54693,7 +56643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ref="A30:A39" si="1">A3</f>
         <v>0</v>
@@ -54778,7 +56728,7 @@
         <v>1.8533357421875001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -54863,7 +56813,7 @@
         <v>1.3767268554687502E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -54948,7 +56898,7 @@
         <v>7.7026845703124991E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -55033,7 +56983,7 @@
         <v>1.2596195312499999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -55118,7 +57068,7 @@
         <v>2.6713940429687499E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -55203,7 +57153,7 @@
         <v>3.2034765625000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -55288,7 +57238,7 @@
         <v>0.30281099609375001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -55373,7 +57323,7 @@
         <v>3.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -55458,7 +57408,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -55543,7 +57493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -55627,7 +57577,7 @@
         <v>0.41974920800781251</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -55635,7 +57585,7 @@
         <v>31359923</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -55643,7 +57593,7 @@
         <v>102400000</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -55652,7 +57602,7 @@
         <v>0.30624924804687498</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
